--- a/data/Raw_MissingDataImputed/TiMeS_matrix_mdImputed_allT1.xlsx
+++ b/data/Raw_MissingDataImputed/TiMeS_matrix_mdImputed_allT1.xlsx
@@ -1,21 +1,575 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/data/Raw_MissingDataImputed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F837DAF4-B8A8-7E4F-98AD-8A3F23E6D9C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2600" yWindow="1420" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_affected_UPPER_EXTREMITY</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_affected_WRIST</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_affected_HAND</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_affected_COORDINATION.SPEED</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_affected_TOTAL</t>
+  </si>
+  <si>
+    <t>P.G_affected_FIST_mean</t>
+  </si>
+  <si>
+    <t>P.G_affected_PINCH_mean</t>
+  </si>
+  <si>
+    <t>P.G_affected_KEY_mean</t>
+  </si>
+  <si>
+    <t>MRC_affected</t>
+  </si>
+  <si>
+    <t>Ashworth_affected</t>
+  </si>
+  <si>
+    <t>B.B_blocks_affected_hand</t>
+  </si>
+  <si>
+    <t>X9HPT_affected</t>
+  </si>
+  <si>
+    <t>Purdue_affected_hand</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_unaffected_UPPER_EXTREMITY</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_unaffected_WRIST</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_unaffected_HAND</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_unaffected_COORDINATION.SPEED</t>
+  </si>
+  <si>
+    <t>Fugl.Meyer_unaffected_TOTAL</t>
+  </si>
+  <si>
+    <t>P.G_unaffected_FIST_mean</t>
+  </si>
+  <si>
+    <t>P.G_unaffected_PINCH_mean</t>
+  </si>
+  <si>
+    <t>P.G_unaffected_KEY_mean</t>
+  </si>
+  <si>
+    <t>MRC_unaffected</t>
+  </si>
+  <si>
+    <t>Ashworth_unaffected</t>
+  </si>
+  <si>
+    <t>B.B_blocks_unaffected_hand</t>
+  </si>
+  <si>
+    <t>X9HPT_unaffected</t>
+  </si>
+  <si>
+    <t>Purdue_unaffected_hand</t>
+  </si>
+  <si>
+    <t>BERG</t>
+  </si>
+  <si>
+    <t>RASP_TOTAL_affected</t>
+  </si>
+  <si>
+    <t>RASP_affected_face</t>
+  </si>
+  <si>
+    <t>RASP_affected_hand</t>
+  </si>
+  <si>
+    <t>RASP_affected_foot</t>
+  </si>
+  <si>
+    <t>RASP_TOTAL_unaffected</t>
+  </si>
+  <si>
+    <t>RASP_unaffected_face</t>
+  </si>
+  <si>
+    <t>RASP_unaffected_hand</t>
+  </si>
+  <si>
+    <t>RASP_unaffected_foot</t>
+  </si>
+  <si>
+    <t>MOCA_visuo.spatial.executive</t>
+  </si>
+  <si>
+    <t>MOCA_denomination</t>
+  </si>
+  <si>
+    <t>MOCA_attention_tot</t>
+  </si>
+  <si>
+    <t>MOCA_language_tot</t>
+  </si>
+  <si>
+    <t>MOCA_abstraction</t>
+  </si>
+  <si>
+    <t>MOCA_memory</t>
+  </si>
+  <si>
+    <t>MOCA_orientation</t>
+  </si>
+  <si>
+    <t>MOCA_Total_corrected</t>
+  </si>
+  <si>
+    <t>Fluency_phon_final_score</t>
+  </si>
+  <si>
+    <t>Fluency_sem_final_score</t>
+  </si>
+  <si>
+    <t>LAST_TOTAL</t>
+  </si>
+  <si>
+    <t>Digit_forward_TOTAL</t>
+  </si>
+  <si>
+    <t>Digit_backward_TOTAL</t>
+  </si>
+  <si>
+    <t>Digit_sequencing_TOTAL</t>
+  </si>
+  <si>
+    <t>Digit_TOTAL</t>
+  </si>
+  <si>
+    <t>Corsi_forward_TOTAL</t>
+  </si>
+  <si>
+    <t>Corsi_backward_TOTAL</t>
+  </si>
+  <si>
+    <t>CERAD_delayed_copy_recall_TOTAL</t>
+  </si>
+  <si>
+    <t>TAP_alert_without_warning_RT</t>
+  </si>
+  <si>
+    <t>TAP_alert_with_warning_RT</t>
+  </si>
+  <si>
+    <t>TAP_divided_attention_single_condition_Auditive_RT</t>
+  </si>
+  <si>
+    <t>TAP_divided_attention_single_condition_Visual_RT</t>
+  </si>
+  <si>
+    <t>TAP_divided_attention_both_condition_Auditive_RT</t>
+  </si>
+  <si>
+    <t>TAP_divided_attention_both_condition_Visual_RT</t>
+  </si>
+  <si>
+    <t>CTM_A_time</t>
+  </si>
+  <si>
+    <t>CTM_B_time</t>
+  </si>
+  <si>
+    <t>Bells_omissions_total</t>
+  </si>
+  <si>
+    <t>Bells_time</t>
+  </si>
+  <si>
+    <t>Bi.manual_coordination_corrected</t>
+  </si>
+  <si>
+    <t>FAB_TOT</t>
+  </si>
+  <si>
+    <t>AST_unaffected_TOTAL</t>
+  </si>
+  <si>
+    <t>CERAD_copy_TOTAL</t>
+  </si>
+  <si>
+    <t>Stroop_color_time</t>
+  </si>
+  <si>
+    <t>Stroop_words_time</t>
+  </si>
+  <si>
+    <t>Stroop_interference_time</t>
+  </si>
+  <si>
+    <t>Purdue_Assembling</t>
+  </si>
+  <si>
+    <t>Purdue_both_hands</t>
+  </si>
+  <si>
+    <t>Line_bissec_20cm</t>
+  </si>
+  <si>
+    <t>Line_bissec_.5cm</t>
+  </si>
+  <si>
+    <t>Bells_omissions_total.1</t>
+  </si>
+  <si>
+    <t>Bells_omissions_L.R</t>
+  </si>
+  <si>
+    <t>Bells_time.1</t>
+  </si>
+  <si>
+    <t>SIS_physical_problems</t>
+  </si>
+  <si>
+    <t>SIS_memory.thinking_capacities</t>
+  </si>
+  <si>
+    <t>SIS_mood.emotions</t>
+  </si>
+  <si>
+    <t>SIS_communication.understanding</t>
+  </si>
+  <si>
+    <t>SIS_stroke_recovery</t>
+  </si>
+  <si>
+    <t>STAI_S</t>
+  </si>
+  <si>
+    <t>STAI_T</t>
+  </si>
+  <si>
+    <t>mRNLI_global</t>
+  </si>
+  <si>
+    <t>mRNLI_global_physical</t>
+  </si>
+  <si>
+    <t>mRNLI_social</t>
+  </si>
+  <si>
+    <t>PSQI</t>
+  </si>
+  <si>
+    <t>GSE</t>
+  </si>
+  <si>
+    <t>HADS_D</t>
+  </si>
+  <si>
+    <t>HADS_A</t>
+  </si>
+  <si>
+    <t>MFI_general</t>
+  </si>
+  <si>
+    <t>MFI_physical</t>
+  </si>
+  <si>
+    <t>MFI_mental</t>
+  </si>
+  <si>
+    <t>MFI_activities</t>
+  </si>
+  <si>
+    <t>MFI_motivation</t>
+  </si>
+  <si>
+    <t>SCS_Total</t>
+  </si>
+  <si>
+    <t>SCS_Mean</t>
+  </si>
+  <si>
+    <t>FAS_Total</t>
+  </si>
+  <si>
+    <t>FAS_Mean</t>
+  </si>
+  <si>
+    <t>Barthel</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>mRS</t>
+  </si>
+  <si>
+    <t>FIM_Motor</t>
+  </si>
+  <si>
+    <t>FIM_Cognitive</t>
+  </si>
+  <si>
+    <t>FIM_TOTAL</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>P061</t>
+  </si>
+  <si>
+    <t>P062</t>
+  </si>
+  <si>
+    <t>P063</t>
+  </si>
+  <si>
+    <t>P064</t>
+  </si>
+  <si>
+    <t>P065</t>
+  </si>
+  <si>
+    <t>P066</t>
+  </si>
+  <si>
+    <t>P067</t>
+  </si>
+  <si>
+    <t>P068</t>
+  </si>
+  <si>
+    <t>P070</t>
+  </si>
+  <si>
+    <t>P071</t>
+  </si>
+  <si>
+    <t>P072</t>
+  </si>
+  <si>
+    <t>P073</t>
+  </si>
+  <si>
+    <t>P074</t>
+  </si>
+  <si>
+    <t>P075</t>
+  </si>
+  <si>
+    <t>P076</t>
+  </si>
+  <si>
+    <t>P077</t>
+  </si>
+  <si>
+    <t>P078</t>
+  </si>
+  <si>
+    <t>P080</t>
+  </si>
+  <si>
+    <t>P081</t>
+  </si>
+  <si>
+    <t>P082</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +617,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +703,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +755,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,555 +948,339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_affected_UPPER_EXTREMITY</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_affected_WRIST</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_affected_HAND</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_affected_COORDINATION.SPEED</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_affected_TOTAL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P.G_affected_FIST_mean</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>P.G_affected_PINCH_mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P.G_affected_KEY_mean</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MRC_affected</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Ashworth_affected</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>B.B_blocks_affected_hand</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>X9HPT_affected</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Purdue_affected_hand</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_unaffected_UPPER_EXTREMITY</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_unaffected_WRIST</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_unaffected_HAND</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_unaffected_COORDINATION.SPEED</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Fugl.Meyer_unaffected_TOTAL</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>P.G_unaffected_FIST_mean</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>P.G_unaffected_PINCH_mean</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>P.G_unaffected_KEY_mean</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>MRC_unaffected</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Ashworth_unaffected</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>B.B_blocks_unaffected_hand</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>X9HPT_unaffected</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Purdue_unaffected_hand</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_TOTAL_affected</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_affected_face</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_affected_hand</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_affected_foot</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_TOTAL_unaffected</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_unaffected_face</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_unaffected_hand</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>RASP_unaffected_foot</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_visuo.spatial.executive</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_denomination</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_attention_tot</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_language_tot</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_abstraction</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_memory</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_orientation</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>MOCA_Total_corrected</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Fluency_phon_final_score</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Fluency_sem_final_score</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>LAST_TOTAL</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Digit_forward_TOTAL</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Digit_backward_TOTAL</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Digit_sequencing_TOTAL</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Digit_TOTAL</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Corsi_forward_TOTAL</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Corsi_backward_TOTAL</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>CERAD_delayed_copy_recall_TOTAL</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>TAP_alert_without_warning_RT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>TAP_alert_with_warning_RT</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>TAP_divided_attention_single_condition_Auditive_RT</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>TAP_divided_attention_single_condition_Visual_RT</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>TAP_divided_attention_both_condition_Auditive_RT</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>TAP_divided_attention_both_condition_Visual_RT</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>CTM_A_time</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>CTM_B_time</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Bells_omissions_total</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Bells_time</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>Bi.manual_coordination_corrected</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>FAB_TOT</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>AST_unaffected_TOTAL</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>CERAD_copy_TOTAL</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>Stroop_color_time</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>Stroop_words_time</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>Stroop_interference_time</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>Purdue_Assembling</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>Purdue_both_hands</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>Line_bissec_20cm</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>Line_bissec_.5cm</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>Bells_omissions_total.1</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>Bells_omissions_L.R</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>Bells_time.1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>SIS_physical_problems</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>SIS_memory.thinking_capacities</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>SIS_mood.emotions</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>SIS_communication.understanding</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>SIS_stroke_recovery</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>STAI_S</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>STAI_T</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>mRNLI_global</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>mRNLI_global_physical</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>mRNLI_social</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>PSQI</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>GSE</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>HADS_D</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>HADS_A</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>MFI_general</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>MFI_physical</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>MFI_mental</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>MFI_activities</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>MFI_motivation</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>SCS_Total</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>SCS_Mean</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>FAS_Total</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>FAS_Mean</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>Barthel</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>FAC</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>mRS</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>FIM_Motor</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>FIM_Cognitive</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>FIM_TOTAL</t>
-        </is>
+    <row r="1" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P001</t>
-        </is>
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -916,13 +1298,13 @@
         <v>58</v>
       </c>
       <c r="G2">
-        <v>45.33333333</v>
+        <v>45.333333330000002</v>
       </c>
       <c r="H2">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="I2">
-        <v>6.833333333</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="J2">
         <v>65</v>
@@ -955,19 +1337,19 @@
         <v>59</v>
       </c>
       <c r="T2">
-        <v>45.16666667</v>
+        <v>45.166666669999998</v>
       </c>
       <c r="U2">
-        <v>9.333333333000001</v>
+        <v>9.3333333330000006</v>
       </c>
       <c r="V2">
-        <v>9.166666666999999</v>
+        <v>9.1666666669999994</v>
       </c>
       <c r="W2">
         <v>65</v>
       </c>
       <c r="X2">
-        <v>-0.9184701205590851</v>
+        <v>-0.91847012055908506</v>
       </c>
       <c r="Y2">
         <v>49</v>
@@ -982,7 +1364,7 @@
         <v>56</v>
       </c>
       <c r="AC2">
-        <v>174.4179177962498</v>
+        <v>174.41791779624981</v>
       </c>
       <c r="AD2">
         <v>23</v>
@@ -991,7 +1373,7 @@
         <v>41</v>
       </c>
       <c r="AF2">
-        <v>44.10644869183894</v>
+        <v>44.106448691838942</v>
       </c>
       <c r="AG2">
         <v>170.6971423217351</v>
@@ -1003,7 +1385,7 @@
         <v>37</v>
       </c>
       <c r="AJ2">
-        <v>43.80946667207533</v>
+        <v>43.809466672075331</v>
       </c>
       <c r="AK2">
         <v>4</v>
@@ -1138,7 +1520,7 @@
         <v>100</v>
       </c>
       <c r="CC2">
-        <v>97.22222222000001</v>
+        <v>97.222222220000006</v>
       </c>
       <c r="CD2">
         <v>100</v>
@@ -1192,7 +1574,7 @@
         <v>106</v>
       </c>
       <c r="CU2">
-        <v>9.636363636</v>
+        <v>9.6363636360000005</v>
       </c>
       <c r="CV2">
         <v>6</v>
@@ -1219,11 +1601,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P002</t>
-        </is>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -1244,16 +1624,16 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="I3">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="J3">
         <v>60</v>
       </c>
       <c r="K3">
-        <v>1.793384823883828</v>
+        <v>1.7933848238838279</v>
       </c>
       <c r="L3">
         <v>39</v>
@@ -1280,7 +1660,7 @@
         <v>58</v>
       </c>
       <c r="T3">
-        <v>19.33333333</v>
+        <v>19.333333329999999</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1292,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="X3">
-        <v>0.4285543385661537</v>
+        <v>0.42855433856615371</v>
       </c>
       <c r="Y3">
         <v>40</v>
@@ -1316,7 +1696,7 @@
         <v>45</v>
       </c>
       <c r="AF3">
-        <v>43.61743255778091</v>
+        <v>43.617432557780909</v>
       </c>
       <c r="AG3">
         <v>173.224817842774</v>
@@ -1328,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="AJ3">
-        <v>44.50046398079194</v>
+        <v>44.500463980791942</v>
       </c>
       <c r="AK3">
         <v>2</v>
@@ -1382,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="BB3">
-        <v>8.705772546792572</v>
+        <v>8.7057725467925717</v>
       </c>
       <c r="BC3">
         <v>524</v>
@@ -1439,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="BU3">
-        <v>7.203490484258312</v>
+        <v>7.2034904842583121</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -1463,7 +1843,7 @@
         <v>100</v>
       </c>
       <c r="CC3">
-        <v>97.22222222000001</v>
+        <v>97.222222220000006</v>
       </c>
       <c r="CD3">
         <v>100</v>
@@ -1517,7 +1897,7 @@
         <v>102</v>
       </c>
       <c r="CU3">
-        <v>9.272727272999999</v>
+        <v>9.2727272729999992</v>
       </c>
       <c r="CV3">
         <v>3</v>
@@ -1544,11 +1924,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P003</t>
-        </is>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1569,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="H4">
-        <v>5.666666667</v>
+        <v>5.6666666670000003</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -1578,7 +1956,7 @@
         <v>65</v>
       </c>
       <c r="K4">
-        <v>2.074027398807875</v>
+        <v>2.0740273988078748</v>
       </c>
       <c r="L4">
         <v>51</v>
@@ -1605,19 +1983,19 @@
         <v>60</v>
       </c>
       <c r="T4">
-        <v>41.66666667</v>
+        <v>41.666666669999998</v>
       </c>
       <c r="U4">
-        <v>6.166666667</v>
+        <v>6.1666666670000003</v>
       </c>
       <c r="V4">
-        <v>8.833333333000001</v>
+        <v>8.8333333330000006</v>
       </c>
       <c r="W4">
         <v>65</v>
       </c>
       <c r="X4">
-        <v>-0.7388134532784814</v>
+        <v>-0.73881345327848136</v>
       </c>
       <c r="Y4">
         <v>55</v>
@@ -1632,7 +2010,7 @@
         <v>52</v>
       </c>
       <c r="AC4">
-        <v>171.5287707215348</v>
+        <v>171.52877072153481</v>
       </c>
       <c r="AD4">
         <v>24</v>
@@ -1641,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="AF4">
-        <v>43.09673519849917</v>
+        <v>43.096735198499168</v>
       </c>
       <c r="AG4">
         <v>168.8146016883189</v>
@@ -1653,7 +2031,7 @@
         <v>39</v>
       </c>
       <c r="AJ4">
-        <v>43.10181764969786</v>
+        <v>43.101817649697857</v>
       </c>
       <c r="AK4">
         <v>2</v>
@@ -1788,7 +2166,7 @@
         <v>100</v>
       </c>
       <c r="CC4">
-        <v>77.77777777999999</v>
+        <v>77.777777779999994</v>
       </c>
       <c r="CD4">
         <v>100</v>
@@ -1842,7 +2220,7 @@
         <v>108</v>
       </c>
       <c r="CU4">
-        <v>9.818181817999999</v>
+        <v>9.8181818179999993</v>
       </c>
       <c r="CV4">
         <v>3</v>
@@ -1869,11 +2247,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P004</t>
-        </is>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -1891,13 +2267,13 @@
         <v>47</v>
       </c>
       <c r="G5">
-        <v>17.66666667</v>
+        <v>17.666666670000001</v>
       </c>
       <c r="H5">
         <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -1936,7 +2312,7 @@
         <v>3.016666667</v>
       </c>
       <c r="V5">
-        <v>4.466666667</v>
+        <v>4.4666666670000001</v>
       </c>
       <c r="W5">
         <v>53</v>
@@ -2113,10 +2489,10 @@
         <v>96.875</v>
       </c>
       <c r="CC5">
-        <v>63.88888889</v>
+        <v>63.888888889999997</v>
       </c>
       <c r="CD5">
-        <v>85.11626543206398</v>
+        <v>85.116265432063983</v>
       </c>
       <c r="CE5">
         <v>40</v>
@@ -2146,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>4.374935896534883</v>
+        <v>4.3749358965348826</v>
       </c>
       <c r="CO5">
         <v>20</v>
@@ -2167,7 +2543,7 @@
         <v>72</v>
       </c>
       <c r="CU5">
-        <v>6.545454545</v>
+        <v>6.5454545450000001</v>
       </c>
       <c r="CV5">
         <v>3</v>
@@ -2194,11 +2570,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P005</t>
-        </is>
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -2216,13 +2590,13 @@
         <v>59</v>
       </c>
       <c r="G6">
-        <v>36.33333333</v>
+        <v>36.333333330000002</v>
       </c>
       <c r="H6">
-        <v>4.033333333</v>
+        <v>4.0333333329999999</v>
       </c>
       <c r="I6">
-        <v>5.566666667</v>
+        <v>5.5666666669999998</v>
       </c>
       <c r="J6">
         <v>65</v>
@@ -2408,7 +2782,7 @@
         <v>25.15</v>
       </c>
       <c r="BS6">
-        <v>38.01311183899059</v>
+        <v>38.013111838990589</v>
       </c>
       <c r="BT6">
         <v>20</v>
@@ -2438,7 +2812,7 @@
         <v>68.75</v>
       </c>
       <c r="CC6">
-        <v>88.88888889</v>
+        <v>88.888888890000004</v>
       </c>
       <c r="CD6">
         <v>100</v>
@@ -2471,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="CN6">
-        <v>3.356180835370841</v>
+        <v>3.3561808353708411</v>
       </c>
       <c r="CO6">
         <v>11</v>
@@ -2498,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="CW6">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="CX6">
         <v>100</v>
@@ -2519,11 +2893,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P006</t>
-        </is>
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -2541,7 +2913,7 @@
         <v>54</v>
       </c>
       <c r="G7">
-        <v>26.33333333</v>
+        <v>26.333333329999999</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -2580,10 +2952,10 @@
         <v>58</v>
       </c>
       <c r="T7">
-        <v>18.66666667</v>
+        <v>18.666666670000001</v>
       </c>
       <c r="U7">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="V7">
         <v>3</v>
@@ -2763,7 +3135,7 @@
         <v>93.75</v>
       </c>
       <c r="CC7">
-        <v>58.33333333</v>
+        <v>58.333333330000002</v>
       </c>
       <c r="CD7">
         <v>100</v>
@@ -2817,7 +3189,7 @@
         <v>78</v>
       </c>
       <c r="CU7">
-        <v>7.090909091</v>
+        <v>7.0909090910000003</v>
       </c>
       <c r="CV7">
         <v>3</v>
@@ -2844,11 +3216,9 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P007</t>
-        </is>
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>113</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -2869,10 +3239,10 @@
         <v>26</v>
       </c>
       <c r="H8">
-        <v>5.166666667</v>
+        <v>5.1666666670000003</v>
       </c>
       <c r="I8">
-        <v>7.333333333</v>
+        <v>7.3333333329999997</v>
       </c>
       <c r="J8">
         <v>62</v>
@@ -2905,13 +3275,13 @@
         <v>60</v>
       </c>
       <c r="T8">
-        <v>28.66666667</v>
+        <v>28.666666670000001</v>
       </c>
       <c r="U8">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="V8">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="W8">
         <v>65</v>
@@ -2932,7 +3302,7 @@
         <v>56</v>
       </c>
       <c r="AC8">
-        <v>176.2681097263259</v>
+        <v>176.26810972632589</v>
       </c>
       <c r="AD8">
         <v>24</v>
@@ -2941,7 +3311,7 @@
         <v>48</v>
       </c>
       <c r="AF8">
-        <v>44.76017203283153</v>
+        <v>44.760172032831527</v>
       </c>
       <c r="AG8">
         <v>176.6626376601246</v>
@@ -2953,7 +3323,7 @@
         <v>48</v>
       </c>
       <c r="AJ8">
-        <v>45.69424236450148</v>
+        <v>45.694242364501477</v>
       </c>
       <c r="AK8">
         <v>4</v>
@@ -3076,7 +3446,7 @@
         <v>1.476996857146212</v>
       </c>
       <c r="BY8">
-        <v>-0.2772416932260455</v>
+        <v>-0.27724169322604553</v>
       </c>
       <c r="BZ8">
         <v>112.0512270115312</v>
@@ -3088,7 +3458,7 @@
         <v>65.625</v>
       </c>
       <c r="CC8">
-        <v>52.77777778</v>
+        <v>52.777777780000001</v>
       </c>
       <c r="CD8">
         <v>100</v>
@@ -3121,7 +3491,7 @@
         <v>2.949818354359405</v>
       </c>
       <c r="CN8">
-        <v>4.04070017125621</v>
+        <v>4.0407001712562103</v>
       </c>
       <c r="CO8">
         <v>10.31681917000904</v>
@@ -3130,25 +3500,25 @@
         <v>10.3176678965907</v>
       </c>
       <c r="CQ8">
-        <v>7.898193412148505</v>
+        <v>7.8981934121485047</v>
       </c>
       <c r="CR8">
-        <v>9.508328581559928</v>
+        <v>9.5083285815599279</v>
       </c>
       <c r="CS8">
-        <v>7.252029696583245</v>
+        <v>7.2520296965832447</v>
       </c>
       <c r="CT8">
-        <v>68.50040487214318</v>
+        <v>68.500404872143179</v>
       </c>
       <c r="CU8">
-        <v>6.22730953383693</v>
+        <v>6.2273095338369302</v>
       </c>
       <c r="CV8">
-        <v>7.772156944298135</v>
+        <v>7.7721569442981346</v>
       </c>
       <c r="CW8">
-        <v>2.590718981507873</v>
+        <v>2.5907189815078731</v>
       </c>
       <c r="CX8">
         <v>100</v>
@@ -3169,11 +3539,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P008</t>
-        </is>
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
       </c>
       <c r="B9">
         <v>29</v>
@@ -3194,7 +3562,7 @@
         <v>15.66666667</v>
       </c>
       <c r="H9">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="I9">
         <v>10.33333333</v>
@@ -3230,10 +3598,10 @@
         <v>60</v>
       </c>
       <c r="T9">
-        <v>19.66666667</v>
+        <v>19.666666670000001</v>
       </c>
       <c r="U9">
-        <v>8.833333333000001</v>
+        <v>8.8333333330000006</v>
       </c>
       <c r="V9">
         <v>11</v>
@@ -3257,7 +3625,7 @@
         <v>46</v>
       </c>
       <c r="AC9">
-        <v>157.3976571528567</v>
+        <v>157.39765715285671</v>
       </c>
       <c r="AD9">
         <v>22</v>
@@ -3266,10 +3634,10 @@
         <v>38</v>
       </c>
       <c r="AF9">
-        <v>38.16774259963844</v>
+        <v>38.167742599638437</v>
       </c>
       <c r="AG9">
-        <v>166.0475646028021</v>
+        <v>166.04756460280211</v>
       </c>
       <c r="AH9">
         <v>22</v>
@@ -3278,7 +3646,7 @@
         <v>46</v>
       </c>
       <c r="AJ9">
-        <v>41.57773504343045</v>
+        <v>41.577735043430451</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -3350,7 +3718,7 @@
         <v>1334</v>
       </c>
       <c r="BH9">
-        <v>1179.375902394307</v>
+        <v>1179.3759023943071</v>
       </c>
       <c r="BI9">
         <v>85.56</v>
@@ -3389,7 +3757,7 @@
         <v>8.686174421142649</v>
       </c>
       <c r="BU9">
-        <v>3.765891488659226</v>
+        <v>3.7658914886592258</v>
       </c>
       <c r="BV9">
         <v>0.5</v>
@@ -3413,10 +3781,10 @@
         <v>12.5</v>
       </c>
       <c r="CC9">
-        <v>80.55555556</v>
+        <v>80.555555560000002</v>
       </c>
       <c r="CD9">
-        <v>92.85714286</v>
+        <v>92.857142859999996</v>
       </c>
       <c r="CE9">
         <v>80</v>
@@ -3446,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="CN9">
-        <v>3.196833195710655</v>
+        <v>3.1968331957106551</v>
       </c>
       <c r="CO9">
         <v>18</v>
@@ -3467,7 +3835,7 @@
         <v>52</v>
       </c>
       <c r="CU9">
-        <v>4.727272727</v>
+        <v>4.7272727269999999</v>
       </c>
       <c r="CV9">
         <v>3</v>
@@ -3494,11 +3862,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P009</t>
-        </is>
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>115</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -3522,7 +3888,7 @@
         <v>1.566666667</v>
       </c>
       <c r="I10">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="J10">
         <v>59</v>
@@ -3558,10 +3924,10 @@
         <v>15.66666667</v>
       </c>
       <c r="U10">
-        <v>4.166666667</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="V10">
-        <v>3.333333333</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="W10">
         <v>65</v>
@@ -3591,10 +3957,10 @@
         <v>29</v>
       </c>
       <c r="AF10">
-        <v>35.0369532245848</v>
+        <v>35.036953224584799</v>
       </c>
       <c r="AG10">
-        <v>163.9923418993345</v>
+        <v>163.99234189933449</v>
       </c>
       <c r="AH10">
         <v>24</v>
@@ -3603,13 +3969,13 @@
         <v>45</v>
       </c>
       <c r="AJ10">
-        <v>40.52020844940002</v>
+        <v>40.520208449400023</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>2.465998712952745</v>
+        <v>2.4659987129527452</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -3618,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1.031578397349365</v>
+        <v>1.0315783973493651</v>
       </c>
       <c r="AP10">
-        <v>0.706995952687264</v>
+        <v>0.70699595268726401</v>
       </c>
       <c r="AQ10">
         <v>4</v>
@@ -3630,22 +3996,22 @@
         <v>5</v>
       </c>
       <c r="AS10">
-        <v>5.763608922706718</v>
+        <v>5.7636089227067178</v>
       </c>
       <c r="AT10">
-        <v>7.752324677648154</v>
+        <v>7.7523246776481542</v>
       </c>
       <c r="AU10">
         <v>5</v>
       </c>
       <c r="AV10">
-        <v>5.552798692984799</v>
+        <v>5.5527986929847986</v>
       </c>
       <c r="AW10">
-        <v>3.892179402537783</v>
+        <v>3.8921794025377832</v>
       </c>
       <c r="AX10">
-        <v>3.146084301549093</v>
+        <v>3.1460843015490929</v>
       </c>
       <c r="AY10">
         <v>12.58824358398889</v>
@@ -3669,16 +4035,16 @@
         <v>590</v>
       </c>
       <c r="BF10">
-        <v>1467.796870827677</v>
+        <v>1467.7968708276769</v>
       </c>
       <c r="BG10">
-        <v>888.4938223487638</v>
+        <v>888.49382234876384</v>
       </c>
       <c r="BH10">
-        <v>1311.273503638049</v>
+        <v>1311.2735036380491</v>
       </c>
       <c r="BI10">
-        <v>298.46</v>
+        <v>298.45999999999998</v>
       </c>
       <c r="BJ10">
         <v>320</v>
@@ -3702,13 +4068,13 @@
         <v>8</v>
       </c>
       <c r="BQ10">
-        <v>33.53398549527674</v>
+        <v>33.533985495276738</v>
       </c>
       <c r="BR10">
-        <v>48.59056889148829</v>
+        <v>48.590568891488289</v>
       </c>
       <c r="BS10">
-        <v>83.2327712592981</v>
+        <v>83.232771259298104</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -3738,10 +4104,10 @@
         <v>34.375</v>
       </c>
       <c r="CC10">
-        <v>83.33333333</v>
+        <v>83.333333330000002</v>
       </c>
       <c r="CD10">
-        <v>7.142857143</v>
+        <v>7.1428571429999996</v>
       </c>
       <c r="CE10">
         <v>40</v>
@@ -3792,7 +4158,7 @@
         <v>48</v>
       </c>
       <c r="CU10">
-        <v>4.363636364</v>
+        <v>4.3636363640000004</v>
       </c>
       <c r="CV10">
         <v>21</v>
@@ -3819,11 +4185,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P010</t>
-        </is>
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -3841,13 +4205,13 @@
         <v>55</v>
       </c>
       <c r="G11">
-        <v>29.33333333</v>
+        <v>29.333333329999999</v>
       </c>
       <c r="H11">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="I11">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="J11">
         <v>63</v>
@@ -3883,7 +4247,7 @@
         <v>33</v>
       </c>
       <c r="U11">
-        <v>4.833333333</v>
+        <v>4.8333333329999997</v>
       </c>
       <c r="V11">
         <v>6.5</v>
@@ -4066,7 +4430,7 @@
         <v>100</v>
       </c>
       <c r="CD11">
-        <v>89.28571429</v>
+        <v>89.285714290000001</v>
       </c>
       <c r="CE11">
         <v>50</v>
@@ -4117,7 +4481,7 @@
         <v>67</v>
       </c>
       <c r="CU11">
-        <v>6.090909091</v>
+        <v>6.0909090910000003</v>
       </c>
       <c r="CV11">
         <v>3</v>
@@ -4144,11 +4508,9 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P011</t>
-        </is>
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>117</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -4166,13 +4528,13 @@
         <v>44</v>
       </c>
       <c r="G12">
-        <v>5.833333333</v>
+        <v>5.8333333329999997</v>
       </c>
       <c r="H12">
         <v>2.5</v>
       </c>
       <c r="I12">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="J12">
         <v>58</v>
@@ -4208,10 +4570,10 @@
         <v>45</v>
       </c>
       <c r="U12">
-        <v>7.166666667</v>
+        <v>7.1666666670000003</v>
       </c>
       <c r="V12">
-        <v>7.833333333</v>
+        <v>7.8333333329999997</v>
       </c>
       <c r="W12">
         <v>65</v>
@@ -4352,10 +4714,10 @@
         <v>11</v>
       </c>
       <c r="BQ12">
-        <v>16.31</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="BR12">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="BS12">
         <v>29.09</v>
@@ -4388,7 +4750,7 @@
         <v>100</v>
       </c>
       <c r="CC12">
-        <v>80.55555556</v>
+        <v>80.555555560000002</v>
       </c>
       <c r="CD12">
         <v>100</v>
@@ -4442,13 +4804,13 @@
         <v>90</v>
       </c>
       <c r="CU12">
-        <v>8.181818182000001</v>
+        <v>8.1818181820000007</v>
       </c>
       <c r="CV12">
         <v>8</v>
       </c>
       <c r="CW12">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="CX12">
         <v>65</v>
@@ -4469,11 +4831,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P012</t>
-        </is>
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
       </c>
       <c r="B13">
         <v>27</v>
@@ -4491,28 +4851,28 @@
         <v>57</v>
       </c>
       <c r="G13">
-        <v>28.34379187833919</v>
+        <v>28.343791878339189</v>
       </c>
       <c r="H13">
-        <v>3.728817839568697</v>
+        <v>3.7288178395686971</v>
       </c>
       <c r="I13">
-        <v>6.117509172714139</v>
+        <v>6.1175091727141391</v>
       </c>
       <c r="J13">
-        <v>58.29709172100658</v>
+        <v>58.297091721006581</v>
       </c>
       <c r="K13">
         <v>2.24187777025156</v>
       </c>
       <c r="L13">
-        <v>36.80442550002614</v>
+        <v>36.804425500026142</v>
       </c>
       <c r="M13">
         <v>53.4119146141404</v>
       </c>
       <c r="N13">
-        <v>7.270428459948511</v>
+        <v>7.2704284599485112</v>
       </c>
       <c r="O13">
         <v>27</v>
@@ -4530,31 +4890,31 @@
         <v>57</v>
       </c>
       <c r="T13">
-        <v>34.75626197141511</v>
+        <v>34.756261971415107</v>
       </c>
       <c r="U13">
-        <v>4.550710627202321</v>
+        <v>4.5507106272023208</v>
       </c>
       <c r="V13">
-        <v>7.75061755822683</v>
+        <v>7.7506175582268302</v>
       </c>
       <c r="W13">
-        <v>64.76951869938799</v>
+        <v>64.769518699387987</v>
       </c>
       <c r="X13">
         <v>1.451074438562082</v>
       </c>
       <c r="Y13">
-        <v>44.82143087670159</v>
+        <v>44.821430876701591</v>
       </c>
       <c r="Z13">
         <v>25.22142101501581</v>
       </c>
       <c r="AA13">
-        <v>10.13904979357745</v>
+        <v>10.139049793577451</v>
       </c>
       <c r="AB13">
-        <v>47.09417956985246</v>
+        <v>47.094179569852457</v>
       </c>
       <c r="AC13">
         <v>170.1658742026336</v>
@@ -4563,22 +4923,22 @@
         <v>23.02820331365082</v>
       </c>
       <c r="AE13">
-        <v>44.54084670084791</v>
+        <v>44.540846700847908</v>
       </c>
       <c r="AF13">
-        <v>42.62903582145423</v>
+        <v>42.629035821454231</v>
       </c>
       <c r="AG13">
         <v>173.6931050349709</v>
       </c>
       <c r="AH13">
-        <v>23.4611693304633</v>
+        <v>23.461169330463299</v>
       </c>
       <c r="AI13">
-        <v>45.86523408986761</v>
+        <v>45.865234089867613</v>
       </c>
       <c r="AJ13">
-        <v>44.50235417722551</v>
+        <v>44.502354177225513</v>
       </c>
       <c r="AK13">
         <v>4</v>
@@ -4608,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="AT13">
-        <v>17.50379261355165</v>
+        <v>17.503792613551649</v>
       </c>
       <c r="AU13">
         <v>15</v>
@@ -4626,43 +4986,43 @@
         <v>23</v>
       </c>
       <c r="AZ13">
-        <v>7.637764393908461</v>
+        <v>7.6377643939084612</v>
       </c>
       <c r="BA13">
-        <v>7.554760162189258</v>
+        <v>7.5547601621892584</v>
       </c>
       <c r="BB13">
-        <v>8.268617641111494</v>
+        <v>8.2686176411114936</v>
       </c>
       <c r="BC13">
-        <v>326.8460708037222</v>
+        <v>326.84607080372223</v>
       </c>
       <c r="BD13">
-        <v>330.2544144756865</v>
+        <v>330.25441447568647</v>
       </c>
       <c r="BE13">
-        <v>648.5159351137992</v>
+        <v>648.51593511379917</v>
       </c>
       <c r="BF13">
         <v>1019.160708119094</v>
       </c>
       <c r="BG13">
-        <v>699.0394758442411</v>
+        <v>699.03947584424111</v>
       </c>
       <c r="BH13">
-        <v>942.136643335532</v>
+        <v>942.13664333553197</v>
       </c>
       <c r="BI13">
-        <v>66.1186441300208</v>
+        <v>66.118644130020797</v>
       </c>
       <c r="BJ13">
-        <v>136.6168285934968</v>
+        <v>136.61682859349679</v>
       </c>
       <c r="BK13">
-        <v>3.793830669428284</v>
+        <v>3.7938306694282842</v>
       </c>
       <c r="BL13">
-        <v>141.4544531059076</v>
+        <v>141.45445310590759</v>
       </c>
       <c r="BM13">
         <v>7</v>
@@ -4674,22 +5034,22 @@
         <v>12</v>
       </c>
       <c r="BP13">
-        <v>9.727621372414358</v>
+        <v>9.7276213724143581</v>
       </c>
       <c r="BQ13">
-        <v>16.35037300765987</v>
+        <v>16.350373007659869</v>
       </c>
       <c r="BR13">
         <v>22.07486983958459</v>
       </c>
       <c r="BS13">
-        <v>39.36327037914926</v>
+        <v>39.363270379149263</v>
       </c>
       <c r="BT13">
-        <v>16.75791656099108</v>
+        <v>16.757916560991081</v>
       </c>
       <c r="BU13">
-        <v>5.935839793287556</v>
+        <v>5.9358397932875562</v>
       </c>
       <c r="BV13">
         <v>2.25</v>
@@ -4698,13 +5058,13 @@
         <v>0.25</v>
       </c>
       <c r="BX13">
-        <v>3.793830669428284</v>
+        <v>3.7938306694282842</v>
       </c>
       <c r="BY13">
-        <v>0.2010225063869814</v>
+        <v>0.20102250638698141</v>
       </c>
       <c r="BZ13">
-        <v>141.4544531059076</v>
+        <v>141.45445310590759</v>
       </c>
       <c r="CA13">
         <v>75</v>
@@ -4713,10 +5073,10 @@
         <v>75</v>
       </c>
       <c r="CC13">
-        <v>55.55555556</v>
+        <v>55.555555560000002</v>
       </c>
       <c r="CD13">
-        <v>92.85714286</v>
+        <v>92.857142859999996</v>
       </c>
       <c r="CE13">
         <v>90</v>
@@ -4731,74 +5091,72 @@
         <v>10.22705160847477</v>
       </c>
       <c r="CI13">
-        <v>7.841098105523242</v>
+        <v>7.8410981055232423</v>
       </c>
       <c r="CJ13">
-        <v>5.488383144450596</v>
+        <v>5.4883831444505962</v>
       </c>
       <c r="CK13">
-        <v>5.523175945422312</v>
+        <v>5.5231759454223122</v>
       </c>
       <c r="CL13">
-        <v>19.08035354470942</v>
+        <v>19.080353544709421</v>
       </c>
       <c r="CM13">
-        <v>3.292597902281832</v>
+        <v>3.2925979022818321</v>
       </c>
       <c r="CN13">
-        <v>3.925214621946571</v>
+        <v>3.9252146219465711</v>
       </c>
       <c r="CO13">
-        <v>10.92904513948053</v>
+        <v>10.929045139480531</v>
       </c>
       <c r="CP13">
         <v>10.90346962194887</v>
       </c>
       <c r="CQ13">
-        <v>8.58400062712904</v>
+        <v>8.5840006271290399</v>
       </c>
       <c r="CR13">
         <v>10.28522597421204</v>
       </c>
       <c r="CS13">
-        <v>7.820148209993</v>
+        <v>7.8201482099930004</v>
       </c>
       <c r="CT13">
-        <v>68.33624495264301</v>
+        <v>68.336244952643014</v>
       </c>
       <c r="CU13">
         <v>6.212385904798122</v>
       </c>
       <c r="CV13">
-        <v>7.984986658530653</v>
+        <v>7.9849866585306533</v>
       </c>
       <c r="CW13">
         <v>2.661662219562579</v>
       </c>
       <c r="CX13">
-        <v>91.58238324285944</v>
+        <v>91.582383242859436</v>
       </c>
       <c r="CY13">
         <v>4.170033910031278</v>
       </c>
       <c r="CZ13">
-        <v>1.534834347428324</v>
+        <v>1.5348343474283239</v>
       </c>
       <c r="DA13">
-        <v>82.08128332560587</v>
+        <v>82.081283325605867</v>
       </c>
       <c r="DB13">
-        <v>32.31614308592435</v>
+        <v>32.316143085924352</v>
       </c>
       <c r="DC13">
         <v>114.3974264115302</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P013</t>
-        </is>
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -4819,7 +5177,7 @@
         <v>54.5</v>
       </c>
       <c r="H14">
-        <v>4.966666667</v>
+        <v>4.9666666670000001</v>
       </c>
       <c r="I14">
         <v>10.8</v>
@@ -4855,10 +5213,10 @@
         <v>60</v>
       </c>
       <c r="T14">
-        <v>52.23333333</v>
+        <v>52.233333330000001</v>
       </c>
       <c r="U14">
-        <v>6.033333333</v>
+        <v>6.0333333329999999</v>
       </c>
       <c r="V14">
         <v>10.46666667</v>
@@ -4882,7 +5240,7 @@
         <v>56</v>
       </c>
       <c r="AC14">
-        <v>179.3251805055295</v>
+        <v>179.32518050552949</v>
       </c>
       <c r="AD14">
         <v>19</v>
@@ -4891,10 +5249,10 @@
         <v>45</v>
       </c>
       <c r="AF14">
-        <v>45.82298240283718</v>
+        <v>45.822982402837177</v>
       </c>
       <c r="AG14">
-        <v>174.9118103477676</v>
+        <v>174.91181034776761</v>
       </c>
       <c r="AH14">
         <v>23</v>
@@ -4903,7 +5261,7 @@
         <v>46</v>
       </c>
       <c r="AJ14">
-        <v>45.31733690618766</v>
+        <v>45.317336906187663</v>
       </c>
       <c r="AK14">
         <v>5</v>
@@ -4981,10 +5339,10 @@
         <v>28.22</v>
       </c>
       <c r="BJ14">
-        <v>79.65000000000001</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="BK14">
-        <v>0.005608390241457428</v>
+        <v>5.6083902414574283E-3</v>
       </c>
       <c r="BL14">
         <v>98.9824773774682</v>
@@ -5023,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="BX14">
-        <v>0.005608390241457428</v>
+        <v>5.6083902414574283E-3</v>
       </c>
       <c r="BY14">
-        <v>-0.6087745994005911</v>
+        <v>-0.60877459940059109</v>
       </c>
       <c r="BZ14">
         <v>98.9824773774682</v>
@@ -5038,7 +5396,7 @@
         <v>100</v>
       </c>
       <c r="CC14">
-        <v>94.44444444</v>
+        <v>94.444444439999998</v>
       </c>
       <c r="CD14">
         <v>100</v>
@@ -5092,7 +5450,7 @@
         <v>69</v>
       </c>
       <c r="CU14">
-        <v>6.272727273</v>
+        <v>6.2727272730000001</v>
       </c>
       <c r="CV14">
         <v>3</v>
@@ -5119,11 +5477,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P014</t>
-        </is>
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>120</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -5141,13 +5497,13 @@
         <v>59</v>
       </c>
       <c r="G15">
-        <v>40.66666667</v>
+        <v>40.666666669999998</v>
       </c>
       <c r="H15">
-        <v>2.833333333</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="I15">
-        <v>8.933333333</v>
+        <v>8.9333333330000002</v>
       </c>
       <c r="J15">
         <v>65</v>
@@ -5180,13 +5536,13 @@
         <v>60</v>
       </c>
       <c r="T15">
-        <v>35.66666667</v>
+        <v>35.666666669999998</v>
       </c>
       <c r="U15">
-        <v>5.933333333</v>
+        <v>5.9333333330000002</v>
       </c>
       <c r="V15">
-        <v>10.26666667</v>
+        <v>10.266666669999999</v>
       </c>
       <c r="W15">
         <v>65</v>
@@ -5198,7 +5554,7 @@
         <v>56</v>
       </c>
       <c r="Z15">
-        <v>19.56</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="AA15">
         <v>10</v>
@@ -5207,7 +5563,7 @@
         <v>54</v>
       </c>
       <c r="AC15">
-        <v>168.78632974998</v>
+        <v>168.78632974998001</v>
       </c>
       <c r="AD15">
         <v>18</v>
@@ -5216,10 +5572,10 @@
         <v>43</v>
       </c>
       <c r="AF15">
-        <v>42.14101531173224</v>
+        <v>42.141015311732239</v>
       </c>
       <c r="AG15">
-        <v>168.8502086844871</v>
+        <v>168.85020868448709</v>
       </c>
       <c r="AH15">
         <v>19</v>
@@ -5363,7 +5719,7 @@
         <v>100</v>
       </c>
       <c r="CC15">
-        <v>69.44444444</v>
+        <v>69.444444439999998</v>
       </c>
       <c r="CD15">
         <v>100</v>
@@ -5417,7 +5773,7 @@
         <v>53</v>
       </c>
       <c r="CU15">
-        <v>4.818181818</v>
+        <v>4.8181818180000002</v>
       </c>
       <c r="CV15">
         <v>3</v>
@@ -5444,11 +5800,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P016</t>
-        </is>
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>121</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -5466,13 +5820,13 @@
         <v>60</v>
       </c>
       <c r="G16">
-        <v>34.66666667</v>
+        <v>34.666666669999998</v>
       </c>
       <c r="H16">
-        <v>5.166666667</v>
+        <v>5.1666666670000003</v>
       </c>
       <c r="I16">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="J16">
         <v>65</v>
@@ -5505,7 +5859,7 @@
         <v>60</v>
       </c>
       <c r="T16">
-        <v>32.66666667</v>
+        <v>32.666666669999998</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -5688,7 +6042,7 @@
         <v>100</v>
       </c>
       <c r="CC16">
-        <v>97.22222222000001</v>
+        <v>97.222222220000006</v>
       </c>
       <c r="CD16">
         <v>100</v>
@@ -5742,13 +6096,13 @@
         <v>65</v>
       </c>
       <c r="CU16">
-        <v>5.909090909</v>
+        <v>5.9090909089999997</v>
       </c>
       <c r="CV16">
         <v>5</v>
       </c>
       <c r="CW16">
-        <v>1.666666667</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="CX16">
         <v>100</v>
@@ -5769,11 +6123,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P017</t>
-        </is>
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>122</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -5791,10 +6143,10 @@
         <v>60</v>
       </c>
       <c r="G17">
-        <v>38.86666667</v>
+        <v>38.866666670000001</v>
       </c>
       <c r="H17">
-        <v>4.466666667</v>
+        <v>4.4666666670000001</v>
       </c>
       <c r="I17">
         <v>9.4</v>
@@ -5830,10 +6182,10 @@
         <v>60</v>
       </c>
       <c r="T17">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="U17">
-        <v>4.366666667</v>
+        <v>4.3666666669999996</v>
       </c>
       <c r="V17">
         <v>7.4</v>
@@ -5857,7 +6209,7 @@
         <v>56</v>
       </c>
       <c r="AC17">
-        <v>170.0134053840651</v>
+        <v>170.01340538406509</v>
       </c>
       <c r="AD17">
         <v>23</v>
@@ -5866,10 +6218,10 @@
         <v>46</v>
       </c>
       <c r="AF17">
-        <v>42.57166011878734</v>
+        <v>42.571660118787342</v>
       </c>
       <c r="AG17">
-        <v>170.8551711081128</v>
+        <v>170.85517110811281</v>
       </c>
       <c r="AH17">
         <v>24</v>
@@ -5878,7 +6230,7 @@
         <v>47</v>
       </c>
       <c r="AJ17">
-        <v>43.64134883316973</v>
+        <v>43.641348833169729</v>
       </c>
       <c r="AK17">
         <v>5</v>
@@ -5983,7 +6335,7 @@
         <v>25.95</v>
       </c>
       <c r="BS17">
-        <v>68.59999999999999</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="BT17">
         <v>28</v>
@@ -6013,7 +6365,7 @@
         <v>59.375</v>
       </c>
       <c r="CC17">
-        <v>66.66666667</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="CD17">
         <v>75</v>
@@ -6067,13 +6419,13 @@
         <v>72</v>
       </c>
       <c r="CU17">
-        <v>6.545454545</v>
+        <v>6.5454545450000001</v>
       </c>
       <c r="CV17">
         <v>8</v>
       </c>
       <c r="CW17">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="CX17">
         <v>100</v>
@@ -6094,11 +6446,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P018</t>
-        </is>
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>123</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -6122,7 +6472,7 @@
         <v>1.5</v>
       </c>
       <c r="I18">
-        <v>4.466666667</v>
+        <v>4.4666666670000001</v>
       </c>
       <c r="J18">
         <v>65</v>
@@ -6155,13 +6505,13 @@
         <v>60</v>
       </c>
       <c r="T18">
-        <v>17.33333333</v>
+        <v>17.333333329999999</v>
       </c>
       <c r="U18">
         <v>1.6</v>
       </c>
       <c r="V18">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W18">
         <v>65</v>
@@ -6305,7 +6655,7 @@
         <v>12.69</v>
       </c>
       <c r="BR18">
-        <v>19.56</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="BS18">
         <v>25.35</v>
@@ -6338,7 +6688,7 @@
         <v>100</v>
       </c>
       <c r="CC18">
-        <v>69.44444444</v>
+        <v>69.444444439999998</v>
       </c>
       <c r="CD18">
         <v>100</v>
@@ -6392,13 +6742,13 @@
         <v>76</v>
       </c>
       <c r="CU18">
-        <v>6.909090909</v>
+        <v>6.9090909089999997</v>
       </c>
       <c r="CV18">
         <v>19</v>
       </c>
       <c r="CW18">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="CX18">
         <v>100</v>
@@ -6419,11 +6769,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P019</t>
-        </is>
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>124</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6483,7 +6831,7 @@
         <v>29.56666667</v>
       </c>
       <c r="U19">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="V19">
         <v>6.766666667</v>
@@ -6663,10 +7011,10 @@
         <v>87.5</v>
       </c>
       <c r="CC19">
-        <v>44.44444444</v>
+        <v>44.444444439999998</v>
       </c>
       <c r="CD19">
-        <v>78.57142856999999</v>
+        <v>78.571428569999995</v>
       </c>
       <c r="CE19">
         <v>10</v>
@@ -6717,13 +7065,13 @@
         <v>62</v>
       </c>
       <c r="CU19">
-        <v>5.636363636</v>
+        <v>5.6363636359999996</v>
       </c>
       <c r="CV19">
         <v>8</v>
       </c>
       <c r="CW19">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="CX19">
         <v>65</v>
@@ -6744,11 +7092,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P020</t>
-        </is>
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
       </c>
       <c r="B20">
         <v>29</v>
@@ -6784,7 +7130,7 @@
         <v>36</v>
       </c>
       <c r="M20">
-        <v>40.09</v>
+        <v>40.090000000000003</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -6805,10 +7151,10 @@
         <v>60</v>
       </c>
       <c r="T20">
-        <v>25.33333333</v>
+        <v>25.333333329999999</v>
       </c>
       <c r="U20">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="V20">
         <v>6</v>
@@ -6988,7 +7334,7 @@
         <v>75</v>
       </c>
       <c r="CC20">
-        <v>72.22222222000001</v>
+        <v>72.222222220000006</v>
       </c>
       <c r="CD20">
         <v>100</v>
@@ -7042,7 +7388,7 @@
         <v>92</v>
       </c>
       <c r="CU20">
-        <v>8.363636364</v>
+        <v>8.3636363639999995</v>
       </c>
       <c r="CV20">
         <v>3</v>
@@ -7069,11 +7415,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P021</t>
-        </is>
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>126</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -7091,13 +7435,13 @@
         <v>60</v>
       </c>
       <c r="G21">
-        <v>51.66666667</v>
+        <v>51.666666669999998</v>
       </c>
       <c r="H21">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="I21">
-        <v>6.166666667</v>
+        <v>6.1666666670000003</v>
       </c>
       <c r="J21">
         <v>65</v>
@@ -7130,13 +7474,13 @@
         <v>60</v>
       </c>
       <c r="T21">
-        <v>50.66666667</v>
+        <v>50.666666669999998</v>
       </c>
       <c r="U21">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="V21">
-        <v>9.166666666999999</v>
+        <v>9.1666666669999994</v>
       </c>
       <c r="W21">
         <v>65</v>
@@ -7313,7 +7657,7 @@
         <v>100</v>
       </c>
       <c r="CC21">
-        <v>86.11111111</v>
+        <v>86.111111109999996</v>
       </c>
       <c r="CD21">
         <v>100</v>
@@ -7367,7 +7711,7 @@
         <v>83</v>
       </c>
       <c r="CU21">
-        <v>7.545454545</v>
+        <v>7.5454545450000001</v>
       </c>
       <c r="CV21">
         <v>6</v>
@@ -7394,11 +7738,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P022</t>
-        </is>
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>127</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -7416,13 +7758,13 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>17.66666667</v>
+        <v>17.666666670000001</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>5.166666667</v>
+        <v>5.1666666670000003</v>
       </c>
       <c r="J22">
         <v>65</v>
@@ -7458,7 +7800,7 @@
         <v>26</v>
       </c>
       <c r="U22">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="V22">
         <v>6</v>
@@ -7602,7 +7944,7 @@
         <v>9</v>
       </c>
       <c r="BQ22">
-        <v>9.720000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="BR22">
         <v>14.81</v>
@@ -7638,7 +7980,7 @@
         <v>100</v>
       </c>
       <c r="CC22">
-        <v>97.22222222000001</v>
+        <v>97.222222220000006</v>
       </c>
       <c r="CD22">
         <v>100</v>
@@ -7698,7 +8040,7 @@
         <v>5</v>
       </c>
       <c r="CW22">
-        <v>1.666666667</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="CX22">
         <v>100</v>
@@ -7719,11 +8061,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P023</t>
-        </is>
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>128</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -7780,10 +8120,10 @@
         <v>55</v>
       </c>
       <c r="T23">
-        <v>27.33333333</v>
+        <v>27.333333329999999</v>
       </c>
       <c r="U23">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="V23">
         <v>7</v>
@@ -7903,7 +8243,7 @@
         <v>793</v>
       </c>
       <c r="BI23">
-        <v>66.26000000000001</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="BJ23">
         <v>179</v>
@@ -7963,10 +8303,10 @@
         <v>50</v>
       </c>
       <c r="CC23">
-        <v>55.55555556</v>
+        <v>55.555555560000002</v>
       </c>
       <c r="CD23">
-        <v>53.57142857</v>
+        <v>53.571428570000002</v>
       </c>
       <c r="CE23">
         <v>30</v>
@@ -8017,13 +8357,13 @@
         <v>49</v>
       </c>
       <c r="CU23">
-        <v>4.454545455</v>
+        <v>4.4545454549999999</v>
       </c>
       <c r="CV23">
         <v>14</v>
       </c>
       <c r="CW23">
-        <v>4.666666667</v>
+        <v>4.6666666670000003</v>
       </c>
       <c r="CX23">
         <v>60</v>
@@ -8044,11 +8384,9 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P025</t>
-        </is>
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -8066,13 +8404,13 @@
         <v>53</v>
       </c>
       <c r="G24">
-        <v>9.333333333000001</v>
+        <v>9.3333333330000006</v>
       </c>
       <c r="H24">
         <v>0.4</v>
       </c>
       <c r="I24">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="J24">
         <v>57</v>
@@ -8111,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="V24">
-        <v>4.166666667</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="W24">
         <v>64</v>
@@ -8141,10 +8479,10 @@
         <v>43</v>
       </c>
       <c r="AF24">
-        <v>38.64225553331329</v>
+        <v>38.642255533313289</v>
       </c>
       <c r="AG24">
-        <v>169.384242985976</v>
+        <v>169.38424298597599</v>
       </c>
       <c r="AH24">
         <v>24</v>
@@ -8153,7 +8491,7 @@
         <v>41</v>
       </c>
       <c r="AJ24">
-        <v>42.64723993039405</v>
+        <v>42.647239930394051</v>
       </c>
       <c r="AK24">
         <v>2</v>
@@ -8291,10 +8629,10 @@
         <v>71.62306120661701</v>
       </c>
       <c r="CD24">
-        <v>81.01368897266018</v>
+        <v>81.013688972660177</v>
       </c>
       <c r="CE24">
-        <v>57.96458344817017</v>
+        <v>57.964583448170167</v>
       </c>
       <c r="CF24">
         <v>53</v>
@@ -8303,16 +8641,16 @@
         <v>53</v>
       </c>
       <c r="CH24">
-        <v>7.453312324545668</v>
+        <v>7.4533123245456681</v>
       </c>
       <c r="CI24">
-        <v>5.920324520367564</v>
+        <v>5.9203245203675641</v>
       </c>
       <c r="CJ24">
-        <v>5.007715779484078</v>
+        <v>5.0077157794840783</v>
       </c>
       <c r="CK24">
-        <v>5.202581984539233</v>
+        <v>5.2025819845392327</v>
       </c>
       <c r="CL24">
         <v>17</v>
@@ -8342,7 +8680,7 @@
         <v>39</v>
       </c>
       <c r="CU24">
-        <v>3.545454545</v>
+        <v>3.5454545450000001</v>
       </c>
       <c r="CV24">
         <v>15</v>
@@ -8369,11 +8707,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P027</t>
-        </is>
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>130</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -8391,7 +8727,7 @@
         <v>41</v>
       </c>
       <c r="G25">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -8430,7 +8766,7 @@
         <v>60</v>
       </c>
       <c r="T25">
-        <v>26.66666667</v>
+        <v>26.666666670000001</v>
       </c>
       <c r="U25">
         <v>2</v>
@@ -8580,7 +8916,7 @@
         <v>15.97</v>
       </c>
       <c r="BR25">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="BS25">
         <v>27.63</v>
@@ -8613,10 +8949,10 @@
         <v>81.25</v>
       </c>
       <c r="CC25">
-        <v>83.33333333</v>
+        <v>83.333333330000002</v>
       </c>
       <c r="CD25">
-        <v>85.71428571</v>
+        <v>85.714285709999999</v>
       </c>
       <c r="CE25">
         <v>60</v>
@@ -8694,11 +9030,9 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P028</t>
-        </is>
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>131</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -8722,7 +9056,7 @@
         <v>3.5</v>
       </c>
       <c r="I26">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="J26">
         <v>65</v>
@@ -8758,7 +9092,7 @@
         <v>28</v>
       </c>
       <c r="U26">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="V26">
         <v>6</v>
@@ -8932,16 +9266,16 @@
         <v>80.09</v>
       </c>
       <c r="CA26">
-        <v>71.53687456016038</v>
+        <v>71.536874560160385</v>
       </c>
       <c r="CB26">
         <v>96.875</v>
       </c>
       <c r="CC26">
-        <v>80.55555556</v>
+        <v>80.555555560000002</v>
       </c>
       <c r="CD26">
-        <v>96.42857143000001</v>
+        <v>96.428571430000005</v>
       </c>
       <c r="CE26">
         <v>80</v>
@@ -9019,11 +9353,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P029</t>
-        </is>
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>132</v>
       </c>
       <c r="B27">
         <v>23</v>
@@ -9041,13 +9373,13 @@
         <v>48</v>
       </c>
       <c r="G27">
-        <v>24.66666667</v>
+        <v>24.666666670000001</v>
       </c>
       <c r="H27">
         <v>1.5</v>
       </c>
       <c r="I27">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="J27">
         <v>58</v>
@@ -9080,13 +9412,13 @@
         <v>60</v>
       </c>
       <c r="T27">
-        <v>26.66666667</v>
+        <v>26.666666670000001</v>
       </c>
       <c r="U27">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="V27">
-        <v>4.833333333</v>
+        <v>4.8333333329999997</v>
       </c>
       <c r="W27">
         <v>65</v>
@@ -9263,7 +9595,7 @@
         <v>96.875</v>
       </c>
       <c r="CC27">
-        <v>69.44444444</v>
+        <v>69.444444439999998</v>
       </c>
       <c r="CD27">
         <v>100</v>
@@ -9317,13 +9649,13 @@
         <v>59</v>
       </c>
       <c r="CU27">
-        <v>5.363636364</v>
+        <v>5.3636363640000004</v>
       </c>
       <c r="CV27">
         <v>17</v>
       </c>
       <c r="CW27">
-        <v>5.666666667</v>
+        <v>5.6666666670000003</v>
       </c>
       <c r="CX27">
         <v>100</v>
@@ -9344,11 +9676,9 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P030</t>
-        </is>
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -9369,10 +9699,10 @@
         <v>43.2</v>
       </c>
       <c r="H28">
-        <v>4.033333333</v>
+        <v>4.0333333329999999</v>
       </c>
       <c r="I28">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J28">
         <v>65</v>
@@ -9405,13 +9735,13 @@
         <v>60</v>
       </c>
       <c r="T28">
-        <v>46.03333333</v>
+        <v>46.033333329999998</v>
       </c>
       <c r="U28">
         <v>6.3</v>
       </c>
       <c r="V28">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="W28">
         <v>65</v>
@@ -9423,7 +9753,7 @@
         <v>65</v>
       </c>
       <c r="Z28">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="AA28">
         <v>15</v>
@@ -9555,7 +9885,7 @@
         <v>11.03</v>
       </c>
       <c r="BR28">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="BS28">
         <v>21.06</v>
@@ -9588,7 +9918,7 @@
         <v>100</v>
       </c>
       <c r="CC28">
-        <v>97.22222222000001</v>
+        <v>97.222222220000006</v>
       </c>
       <c r="CD28">
         <v>100</v>
@@ -9642,7 +9972,7 @@
         <v>69</v>
       </c>
       <c r="CU28">
-        <v>6.272727273</v>
+        <v>6.2727272730000001</v>
       </c>
       <c r="CV28">
         <v>9</v>
@@ -9669,11 +9999,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P031</t>
-        </is>
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>134</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -9691,13 +10019,13 @@
         <v>57</v>
       </c>
       <c r="G29">
-        <v>19.16666667</v>
+        <v>19.166666670000001</v>
       </c>
       <c r="H29">
-        <v>2.366666667</v>
+        <v>2.3666666670000001</v>
       </c>
       <c r="I29">
-        <v>3.366666667</v>
+        <v>3.3666666670000001</v>
       </c>
       <c r="J29">
         <v>62</v>
@@ -9736,7 +10064,7 @@
         <v>3.766666667</v>
       </c>
       <c r="V29">
-        <v>8.633333332999999</v>
+        <v>8.6333333329999995</v>
       </c>
       <c r="W29">
         <v>65</v>
@@ -9877,7 +10205,7 @@
         <v>11</v>
       </c>
       <c r="BQ29">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="BR29">
         <v>19.47</v>
@@ -9913,10 +10241,10 @@
         <v>84.375</v>
       </c>
       <c r="CC29">
-        <v>52.77777778</v>
+        <v>52.777777780000001</v>
       </c>
       <c r="CD29">
-        <v>78.57142856999999</v>
+        <v>78.571428569999995</v>
       </c>
       <c r="CE29">
         <v>90</v>
@@ -9967,13 +10295,13 @@
         <v>75</v>
       </c>
       <c r="CU29">
-        <v>6.818181818</v>
+        <v>6.8181818180000002</v>
       </c>
       <c r="CV29">
         <v>16</v>
       </c>
       <c r="CW29">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="CX29">
         <v>100</v>
@@ -9994,11 +10322,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P032</t>
-        </is>
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>135</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -10016,13 +10342,13 @@
         <v>58</v>
       </c>
       <c r="G30">
-        <v>21.66666667</v>
+        <v>21.666666670000001</v>
       </c>
       <c r="H30">
         <v>3.7</v>
       </c>
       <c r="I30">
-        <v>6.433333333</v>
+        <v>6.4333333330000002</v>
       </c>
       <c r="J30">
         <v>64</v>
@@ -10034,7 +10360,7 @@
         <v>34</v>
       </c>
       <c r="M30">
-        <v>33.13</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -10055,10 +10381,10 @@
         <v>60</v>
       </c>
       <c r="T30">
-        <v>30.33333333</v>
+        <v>30.333333329999999</v>
       </c>
       <c r="U30">
-        <v>4.833333333</v>
+        <v>4.8333333329999997</v>
       </c>
       <c r="V30">
         <v>6.233333333</v>
@@ -10178,7 +10504,7 @@
         <v>1198</v>
       </c>
       <c r="BI30">
-        <v>76.68000000000001</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="BJ30">
         <v>108.88</v>
@@ -10238,10 +10564,10 @@
         <v>62.5</v>
       </c>
       <c r="CC30">
-        <v>83.33333333</v>
+        <v>83.333333330000002</v>
       </c>
       <c r="CD30">
-        <v>85.71428571</v>
+        <v>85.714285709999999</v>
       </c>
       <c r="CE30">
         <v>30</v>
@@ -10292,7 +10618,7 @@
         <v>78</v>
       </c>
       <c r="CU30">
-        <v>7.090909091</v>
+        <v>7.0909090910000003</v>
       </c>
       <c r="CV30">
         <v>3</v>
@@ -10319,11 +10645,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P033</t>
-        </is>
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>136</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -10341,7 +10665,7 @@
         <v>51</v>
       </c>
       <c r="G31">
-        <v>28.66666667</v>
+        <v>28.666666670000001</v>
       </c>
       <c r="H31">
         <v>6.5</v>
@@ -10380,10 +10704,10 @@
         <v>60</v>
       </c>
       <c r="T31">
-        <v>41.66666667</v>
+        <v>41.666666669999998</v>
       </c>
       <c r="U31">
-        <v>7.666666667</v>
+        <v>7.6666666670000003</v>
       </c>
       <c r="V31">
         <v>12.16666667</v>
@@ -10527,7 +10851,7 @@
         <v>11</v>
       </c>
       <c r="BQ31">
-        <v>16.15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="BR31">
         <v>19.11</v>
@@ -10566,7 +10890,7 @@
         <v>50</v>
       </c>
       <c r="CD31">
-        <v>60.71428571</v>
+        <v>60.714285709999999</v>
       </c>
       <c r="CE31">
         <v>30</v>
@@ -10617,13 +10941,13 @@
         <v>82</v>
       </c>
       <c r="CU31">
-        <v>7.454545455</v>
+        <v>7.4545454549999999</v>
       </c>
       <c r="CV31">
         <v>10</v>
       </c>
       <c r="CW31">
-        <v>3.333333333</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="CX31">
         <v>60</v>
@@ -10644,11 +10968,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P034</t>
-        </is>
+    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>137</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -10669,7 +10991,7 @@
         <v>25</v>
       </c>
       <c r="H32">
-        <v>2.033333333</v>
+        <v>2.0333333329999999</v>
       </c>
       <c r="I32">
         <v>6.1</v>
@@ -10687,7 +11009,7 @@
         <v>19.5</v>
       </c>
       <c r="N32">
-        <v>9.137845529617715</v>
+        <v>9.1378455296177155</v>
       </c>
       <c r="O32">
         <v>30</v>
@@ -10705,13 +11027,13 @@
         <v>60</v>
       </c>
       <c r="T32">
-        <v>29.33333333</v>
+        <v>29.333333329999999</v>
       </c>
       <c r="U32">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="V32">
-        <v>6.133333333</v>
+        <v>6.1333333330000004</v>
       </c>
       <c r="W32">
         <v>65</v>
@@ -10723,37 +11045,37 @@
         <v>63</v>
       </c>
       <c r="Z32">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AA32">
         <v>11.76603768030423</v>
       </c>
       <c r="AB32">
-        <v>53.32796826615473</v>
+        <v>53.327968266154727</v>
       </c>
       <c r="AC32">
-        <v>178.4305702121285</v>
+        <v>178.43057021212849</v>
       </c>
       <c r="AD32">
-        <v>23.86483115814653</v>
+        <v>23.864831158146529</v>
       </c>
       <c r="AE32">
-        <v>47.93706928068207</v>
+        <v>47.937069280682067</v>
       </c>
       <c r="AF32">
-        <v>45.51530089511287</v>
+        <v>45.515300895112873</v>
       </c>
       <c r="AG32">
-        <v>177.6574966388665</v>
+        <v>177.65749663886649</v>
       </c>
       <c r="AH32">
-        <v>23.85975041909976</v>
+        <v>23.859750419099761</v>
       </c>
       <c r="AI32">
-        <v>46.74342723536927</v>
+        <v>46.743427235369268</v>
       </c>
       <c r="AJ32">
-        <v>46.09933231048615</v>
+        <v>46.099332310486147</v>
       </c>
       <c r="AK32">
         <v>5</v>
@@ -10804,7 +11126,7 @@
         <v>8</v>
       </c>
       <c r="BA32">
-        <v>9.198580597199509</v>
+        <v>9.1985805971995092</v>
       </c>
       <c r="BB32">
         <v>11</v>
@@ -10813,19 +11135,19 @@
         <v>243.3950621696431</v>
       </c>
       <c r="BD32">
-        <v>248.9568951407388</v>
+        <v>248.95689514073879</v>
       </c>
       <c r="BE32">
         <v>529.7673990119963</v>
       </c>
       <c r="BF32">
-        <v>847.2886544953631</v>
+        <v>847.28865449536306</v>
       </c>
       <c r="BG32">
-        <v>629.3779962665126</v>
+        <v>629.37799626651258</v>
       </c>
       <c r="BH32">
-        <v>798.9137293074619</v>
+        <v>798.91372930746195</v>
       </c>
       <c r="BI32">
         <v>46.66</v>
@@ -10834,10 +11156,10 @@
         <v>111.41</v>
       </c>
       <c r="BK32">
-        <v>0.6504632950362801</v>
+        <v>0.65046329503628009</v>
       </c>
       <c r="BL32">
-        <v>101.6610318681145</v>
+        <v>101.66103186811451</v>
       </c>
       <c r="BM32">
         <v>28</v>
@@ -10864,7 +11186,7 @@
         <v>22.85607869363055</v>
       </c>
       <c r="BU32">
-        <v>7.697074981029409</v>
+        <v>7.6970749810294086</v>
       </c>
       <c r="BV32">
         <v>-0.5</v>
@@ -10873,107 +11195,105 @@
         <v>1</v>
       </c>
       <c r="BX32">
-        <v>0.6504632950362801</v>
+        <v>0.65046329503628009</v>
       </c>
       <c r="BY32">
-        <v>-0.4483562298713147</v>
+        <v>-0.44835622987131468</v>
       </c>
       <c r="BZ32">
-        <v>101.6610318681145</v>
+        <v>101.66103186811451</v>
       </c>
       <c r="CA32">
-        <v>73.6793247833656</v>
+        <v>73.679324783365601</v>
       </c>
       <c r="CB32">
-        <v>95.78945414002931</v>
+        <v>95.789454140029306</v>
       </c>
       <c r="CC32">
-        <v>78.97372940590003</v>
+        <v>78.973729405900031</v>
       </c>
       <c r="CD32">
-        <v>94.47907314818372</v>
+        <v>94.479073148183716</v>
       </c>
       <c r="CE32">
-        <v>77.15941611384066</v>
+        <v>77.159416113840663</v>
       </c>
       <c r="CF32">
         <v>30.23371824483969</v>
       </c>
       <c r="CG32">
-        <v>33.66128448912124</v>
+        <v>33.661284489121243</v>
       </c>
       <c r="CH32">
-        <v>11.83586620908297</v>
+        <v>11.835866209082971</v>
       </c>
       <c r="CI32">
-        <v>8.933566373826199</v>
+        <v>8.9335663738261992</v>
       </c>
       <c r="CJ32">
-        <v>5.869861868211515</v>
+        <v>5.8698618682115153</v>
       </c>
       <c r="CK32">
-        <v>5.825976304264501</v>
+        <v>5.8259763042645014</v>
       </c>
       <c r="CL32">
         <v>22.12806551285448</v>
       </c>
       <c r="CM32">
-        <v>2.806432723373401</v>
+        <v>2.8064327233734012</v>
       </c>
       <c r="CN32">
-        <v>4.062096133346875</v>
+        <v>4.0620961333468752</v>
       </c>
       <c r="CO32">
-        <v>10.06588715861471</v>
+        <v>10.065887158614711</v>
       </c>
       <c r="CP32">
         <v>10.07489893910053</v>
       </c>
       <c r="CQ32">
-        <v>7.638886678651535</v>
+        <v>7.6388866786515353</v>
       </c>
       <c r="CR32">
-        <v>9.220643205141645</v>
+        <v>9.2206432051416449</v>
       </c>
       <c r="CS32">
-        <v>7.038538996977213</v>
+        <v>7.0385389969772127</v>
       </c>
       <c r="CT32">
-        <v>68.63652629319481</v>
+        <v>68.636526293194805</v>
       </c>
       <c r="CU32">
-        <v>6.239684208476064</v>
+        <v>6.2396842084760644</v>
       </c>
       <c r="CV32">
         <v>7.647197267143139</v>
       </c>
       <c r="CW32">
-        <v>2.549065755797781</v>
+        <v>2.5490657557977809</v>
       </c>
       <c r="CX32">
         <v>99.20050144260496</v>
       </c>
       <c r="CY32">
-        <v>4.845086160576635</v>
+        <v>4.8450861605766349</v>
       </c>
       <c r="CZ32">
-        <v>0.9283508652533974</v>
+        <v>0.92835086525339738</v>
       </c>
       <c r="DA32">
-        <v>90.85793696060219</v>
+        <v>90.857936960602188</v>
       </c>
       <c r="DB32">
-        <v>35.02685639129255</v>
+        <v>35.026856391292547</v>
       </c>
       <c r="DC32">
         <v>125.8847933518947</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P035</t>
-        </is>
+    <row r="33" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>138</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11033,10 +11353,10 @@
         <v>25</v>
       </c>
       <c r="U33">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="V33">
-        <v>6.533333333</v>
+        <v>6.5333333329999999</v>
       </c>
       <c r="W33">
         <v>65</v>
@@ -11060,25 +11380,25 @@
         <v>162.4676918385247</v>
       </c>
       <c r="AD33">
-        <v>20.95026439657975</v>
+        <v>20.950264396579751</v>
       </c>
       <c r="AE33">
         <v>40.58525684412227</v>
       </c>
       <c r="AF33">
-        <v>39.96055396777766</v>
+        <v>39.960553967777663</v>
       </c>
       <c r="AG33">
-        <v>183.3518903913674</v>
+        <v>183.35189039136739</v>
       </c>
       <c r="AH33">
         <v>25.23427042095307</v>
       </c>
       <c r="AI33">
-        <v>50.15526276133448</v>
+        <v>50.155262761334477</v>
       </c>
       <c r="AJ33">
-        <v>47.03043580863842</v>
+        <v>47.030435808638423</v>
       </c>
       <c r="AK33">
         <v>4</v>
@@ -11183,7 +11503,7 @@
         <v>23.38</v>
       </c>
       <c r="BS33">
-        <v>37.88</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="BT33">
         <v>0</v>
@@ -11213,10 +11533,10 @@
         <v>100</v>
       </c>
       <c r="CC33">
-        <v>55.55555556</v>
+        <v>55.555555560000002</v>
       </c>
       <c r="CD33">
-        <v>89.28571429</v>
+        <v>89.285714290000001</v>
       </c>
       <c r="CE33">
         <v>5</v>
@@ -11228,16 +11548,16 @@
         <v>47</v>
       </c>
       <c r="CH33">
-        <v>2.443727001579071</v>
+        <v>2.4437270015790711</v>
       </c>
       <c r="CI33">
-        <v>2.130440430913061</v>
+        <v>2.1304404309130609</v>
       </c>
       <c r="CJ33">
-        <v>5.663875868422021</v>
+        <v>5.6638758684220214</v>
       </c>
       <c r="CK33">
-        <v>6.358145880226611</v>
+        <v>6.3581458802266111</v>
       </c>
       <c r="CL33">
         <v>8.973080237086771</v>
@@ -11294,11 +11614,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P036</t>
-        </is>
+    <row r="34" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -11316,10 +11634,10 @@
         <v>53</v>
       </c>
       <c r="G34">
-        <v>26.66666667</v>
+        <v>26.666666670000001</v>
       </c>
       <c r="H34">
-        <v>5.033333333</v>
+        <v>5.0333333329999999</v>
       </c>
       <c r="I34">
         <v>5.9</v>
@@ -11355,10 +11673,10 @@
         <v>59</v>
       </c>
       <c r="T34">
-        <v>59.33333333</v>
+        <v>59.333333330000002</v>
       </c>
       <c r="U34">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="V34">
         <v>11.83333333</v>
@@ -11508,7 +11826,7 @@
         <v>35.81</v>
       </c>
       <c r="BS34">
-        <v>69.29000000000001</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="BT34">
         <v>17</v>
@@ -11538,10 +11856,10 @@
         <v>81.25</v>
       </c>
       <c r="CC34">
-        <v>61.11111111</v>
+        <v>61.111111110000003</v>
       </c>
       <c r="CD34">
-        <v>96.42857143000001</v>
+        <v>96.428571430000005</v>
       </c>
       <c r="CE34">
         <v>60</v>
@@ -11598,7 +11916,7 @@
         <v>11</v>
       </c>
       <c r="CW34">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="CX34">
         <v>100</v>
@@ -11619,11 +11937,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>P037</t>
-        </is>
+    <row r="35" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>140</v>
       </c>
       <c r="B35">
         <v>28</v>
@@ -11641,13 +11957,13 @@
         <v>55</v>
       </c>
       <c r="G35">
-        <v>19.33333333</v>
+        <v>19.333333329999999</v>
       </c>
       <c r="H35">
         <v>4.5</v>
       </c>
       <c r="I35">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="J35">
         <v>65</v>
@@ -11656,13 +11972,13 @@
         <v>1.5</v>
       </c>
       <c r="L35">
-        <v>31.47487163138567</v>
+        <v>31.474871631385671</v>
       </c>
       <c r="M35">
         <v>28.19</v>
       </c>
       <c r="N35">
-        <v>6.088840631641253</v>
+        <v>6.0888406316412533</v>
       </c>
       <c r="O35">
         <v>30</v>
@@ -11683,7 +11999,7 @@
         <v>18</v>
       </c>
       <c r="U35">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="V35">
         <v>7</v>
@@ -11695,40 +12011,40 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>36.3853207282462</v>
+        <v>36.385320728246199</v>
       </c>
       <c r="Z35">
         <v>29.78</v>
       </c>
       <c r="AA35">
-        <v>8.56706584430157</v>
+        <v>8.5670658443015704</v>
       </c>
       <c r="AB35">
-        <v>44.19637062171046</v>
+        <v>44.196370621710457</v>
       </c>
       <c r="AC35">
-        <v>161.4798770993889</v>
+        <v>161.47987709938889</v>
       </c>
       <c r="AD35">
-        <v>22.29472231973959</v>
+        <v>22.294722319739591</v>
       </c>
       <c r="AE35">
-        <v>41.06043128372355</v>
+        <v>41.060431283723553</v>
       </c>
       <c r="AF35">
-        <v>39.59340186451853</v>
+        <v>39.593401864518533</v>
       </c>
       <c r="AG35">
-        <v>168.0277171466678</v>
+        <v>168.02771714666781</v>
       </c>
       <c r="AH35">
-        <v>22.80153206827997</v>
+        <v>22.801532068279968</v>
       </c>
       <c r="AI35">
         <v>44.36881835740359</v>
       </c>
       <c r="AJ35">
-        <v>42.37315528666082</v>
+        <v>42.373155286660818</v>
       </c>
       <c r="AK35">
         <v>1</v>
@@ -11785,22 +12101,22 @@
         <v>4</v>
       </c>
       <c r="BC35">
-        <v>415.4601394568587</v>
+        <v>415.46013945685871</v>
       </c>
       <c r="BD35">
-        <v>410.9302053716984</v>
+        <v>410.93020537169838</v>
       </c>
       <c r="BE35">
         <v>768.6033714235848</v>
       </c>
       <c r="BF35">
-        <v>1207.042329551558</v>
+        <v>1207.0423295515579</v>
       </c>
       <c r="BG35">
         <v>759.5215401666992</v>
       </c>
       <c r="BH35">
-        <v>1108.402072245328</v>
+        <v>1108.4020722453281</v>
       </c>
       <c r="BI35">
         <v>133.19</v>
@@ -11812,7 +12128,7 @@
         <v>6.953624231133932</v>
       </c>
       <c r="BL35">
-        <v>184.0454165725235</v>
+        <v>184.04541657252349</v>
       </c>
       <c r="BM35">
         <v>1</v>
@@ -11839,7 +12155,7 @@
         <v>11.67874760257172</v>
       </c>
       <c r="BU35">
-        <v>4.627855603742045</v>
+        <v>4.6278556037420451</v>
       </c>
       <c r="BV35">
         <v>-2.5</v>
@@ -11854,7 +12170,7 @@
         <v>0.8409529985566192</v>
       </c>
       <c r="BZ35">
-        <v>184.0454165725235</v>
+        <v>184.04541657252349</v>
       </c>
       <c r="CA35">
         <v>37.5</v>
@@ -11863,13 +12179,13 @@
         <v>96.875</v>
       </c>
       <c r="CC35">
-        <v>66.66666667</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="CD35">
-        <v>96.42857143000001</v>
+        <v>96.428571430000005</v>
       </c>
       <c r="CE35">
-        <v>71.32640445322835</v>
+        <v>71.326404453228349</v>
       </c>
       <c r="CF35">
         <v>54</v>
@@ -11878,19 +12194,19 @@
         <v>50</v>
       </c>
       <c r="CH35">
-        <v>9.241792000797458</v>
+        <v>9.2417920007974583</v>
       </c>
       <c r="CI35">
-        <v>7.219811247409193</v>
+        <v>7.2198112474091927</v>
       </c>
       <c r="CJ35">
-        <v>5.027865020385462</v>
+        <v>5.0278650203854616</v>
       </c>
       <c r="CK35">
         <v>5.079537665583759</v>
       </c>
       <c r="CL35">
-        <v>16.69328109309675</v>
+        <v>16.693281093096751</v>
       </c>
       <c r="CM35">
         <v>2</v>
@@ -11917,7 +12233,7 @@
         <v>92</v>
       </c>
       <c r="CU35">
-        <v>8.363636364</v>
+        <v>8.3636363639999995</v>
       </c>
       <c r="CV35">
         <v>3</v>
@@ -11944,11 +12260,9 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P038</t>
-        </is>
+    <row r="36" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>141</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -11966,10 +12280,10 @@
         <v>27</v>
       </c>
       <c r="G36">
-        <v>8.666666666999999</v>
+        <v>8.6666666669999994</v>
       </c>
       <c r="H36">
-        <v>2.633333333</v>
+        <v>2.6333333329999999</v>
       </c>
       <c r="I36">
         <v>4.5</v>
@@ -12005,13 +12319,13 @@
         <v>60</v>
       </c>
       <c r="T36">
-        <v>24.66666667</v>
+        <v>24.666666670000001</v>
       </c>
       <c r="U36">
-        <v>4.966666667</v>
+        <v>4.9666666670000001</v>
       </c>
       <c r="V36">
-        <v>7.666666667</v>
+        <v>7.6666666670000003</v>
       </c>
       <c r="W36">
         <v>65</v>
@@ -12131,7 +12445,7 @@
         <v>120.22</v>
       </c>
       <c r="BJ36">
-        <v>262.41</v>
+        <v>262.41000000000003</v>
       </c>
       <c r="BK36">
         <v>2</v>
@@ -12158,7 +12472,7 @@
         <v>36.53</v>
       </c>
       <c r="BS36">
-        <v>70.06999999999999</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="BT36">
         <v>8</v>
@@ -12188,10 +12502,10 @@
         <v>96.875</v>
       </c>
       <c r="CC36">
-        <v>77.77777777999999</v>
+        <v>77.777777779999994</v>
       </c>
       <c r="CD36">
-        <v>96.42857143000001</v>
+        <v>96.428571430000005</v>
       </c>
       <c r="CE36">
         <v>30</v>
@@ -12242,13 +12556,13 @@
         <v>70</v>
       </c>
       <c r="CU36">
-        <v>6.363636364</v>
+        <v>6.3636363640000004</v>
       </c>
       <c r="CV36">
         <v>4</v>
       </c>
       <c r="CW36">
-        <v>1.333333333</v>
+        <v>1.3333333329999999</v>
       </c>
       <c r="CX36">
         <v>50</v>
@@ -12269,11 +12583,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P039</t>
-        </is>
+    <row r="37" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>142</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -12291,13 +12603,13 @@
         <v>59</v>
       </c>
       <c r="G37">
-        <v>34.76666667</v>
+        <v>34.766666669999999</v>
       </c>
       <c r="H37">
         <v>4.266666667</v>
       </c>
       <c r="I37">
-        <v>7.566666667</v>
+        <v>7.5666666669999998</v>
       </c>
       <c r="J37">
         <v>65</v>
@@ -12309,7 +12621,7 @@
         <v>41</v>
       </c>
       <c r="M37">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="N37">
         <v>7</v>
@@ -12333,10 +12645,10 @@
         <v>35</v>
       </c>
       <c r="U37">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V37">
-        <v>8.933333333</v>
+        <v>8.9333333330000002</v>
       </c>
       <c r="W37">
         <v>65</v>
@@ -12462,7 +12774,7 @@
         <v>3</v>
       </c>
       <c r="BL37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="BM37">
         <v>12</v>
@@ -12480,7 +12792,7 @@
         <v>12.87</v>
       </c>
       <c r="BR37">
-        <v>18.31</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="BS37">
         <v>41.88</v>
@@ -12504,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="BZ37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="CA37">
         <v>37.5</v>
@@ -12513,10 +12825,10 @@
         <v>81.25</v>
       </c>
       <c r="CC37">
-        <v>80.55555556</v>
+        <v>80.555555560000002</v>
       </c>
       <c r="CD37">
-        <v>82.14285714</v>
+        <v>82.142857140000004</v>
       </c>
       <c r="CE37">
         <v>80</v>
@@ -12567,7 +12879,7 @@
         <v>68</v>
       </c>
       <c r="CU37">
-        <v>6.181818182</v>
+        <v>6.1818181819999998</v>
       </c>
       <c r="CV37">
         <v>3</v>
@@ -12594,11 +12906,9 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>P040</t>
-        </is>
+    <row r="38" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>143</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -12622,7 +12932,7 @@
         <v>5.9</v>
       </c>
       <c r="I38">
-        <v>8.033333333</v>
+        <v>8.0333333329999999</v>
       </c>
       <c r="J38">
         <v>52</v>
@@ -12655,7 +12965,7 @@
         <v>60</v>
       </c>
       <c r="T38">
-        <v>52.16666667</v>
+        <v>52.166666669999998</v>
       </c>
       <c r="U38">
         <v>4.733333333</v>
@@ -12778,7 +13088,7 @@
         <v>858</v>
       </c>
       <c r="BI38">
-        <v>93.18000000000001</v>
+        <v>93.18</v>
       </c>
       <c r="BJ38">
         <v>134.03</v>
@@ -12805,7 +13115,7 @@
         <v>12.66</v>
       </c>
       <c r="BR38">
-        <v>16.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="BS38">
         <v>33.71</v>
@@ -12838,10 +13148,10 @@
         <v>96.875</v>
       </c>
       <c r="CC38">
-        <v>83.33333333</v>
+        <v>83.333333330000002</v>
       </c>
       <c r="CD38">
-        <v>89.28571429</v>
+        <v>89.285714290000001</v>
       </c>
       <c r="CE38">
         <v>90</v>
@@ -12892,13 +13202,13 @@
         <v>58</v>
       </c>
       <c r="CU38">
-        <v>5.272727273</v>
+        <v>5.2727272730000001</v>
       </c>
       <c r="CV38">
         <v>5</v>
       </c>
       <c r="CW38">
-        <v>1.666666667</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="CX38">
         <v>100</v>
@@ -12919,11 +13229,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>P041</t>
-        </is>
+    <row r="39" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>144</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -12941,10 +13249,10 @@
         <v>56</v>
       </c>
       <c r="G39">
-        <v>34.33333333</v>
+        <v>34.333333330000002</v>
       </c>
       <c r="H39">
-        <v>2.633333333</v>
+        <v>2.6333333329999999</v>
       </c>
       <c r="I39">
         <v>7.6</v>
@@ -12980,10 +13288,10 @@
         <v>60</v>
       </c>
       <c r="T39">
-        <v>32.33333333</v>
+        <v>32.333333330000002</v>
       </c>
       <c r="U39">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="V39">
         <v>6.8</v>
@@ -13133,7 +13441,7 @@
         <v>23.56</v>
       </c>
       <c r="BS39">
-        <v>36.38</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="BT39">
         <v>16</v>
@@ -13163,10 +13471,10 @@
         <v>65.625</v>
       </c>
       <c r="CC39">
-        <v>80.55555556</v>
+        <v>80.555555560000002</v>
       </c>
       <c r="CD39">
-        <v>71.42857143000001</v>
+        <v>71.428571430000005</v>
       </c>
       <c r="CE39">
         <v>80</v>
@@ -13217,7 +13525,7 @@
         <v>74</v>
       </c>
       <c r="CU39">
-        <v>6.727272727</v>
+        <v>6.7272727269999999</v>
       </c>
       <c r="CV39">
         <v>6</v>
@@ -13244,11 +13552,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>P042</t>
-        </is>
+    <row r="40" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>145</v>
       </c>
       <c r="B40">
         <v>30</v>
@@ -13266,7 +13572,7 @@
         <v>56</v>
       </c>
       <c r="G40">
-        <v>50.33333333</v>
+        <v>50.333333330000002</v>
       </c>
       <c r="H40">
         <v>6.233333333</v>
@@ -13308,7 +13614,7 @@
         <v>59</v>
       </c>
       <c r="U40">
-        <v>6.966666667</v>
+        <v>6.9666666670000001</v>
       </c>
       <c r="V40">
         <v>10.53333333</v>
@@ -13488,10 +13794,10 @@
         <v>68.75</v>
       </c>
       <c r="CC40">
-        <v>58.33333333</v>
+        <v>58.333333330000002</v>
       </c>
       <c r="CD40">
-        <v>71.42857143000001</v>
+        <v>71.428571430000005</v>
       </c>
       <c r="CE40">
         <v>80</v>
@@ -13542,7 +13848,7 @@
         <v>70</v>
       </c>
       <c r="CU40">
-        <v>6.363636364</v>
+        <v>6.3636363640000004</v>
       </c>
       <c r="CV40">
         <v>9</v>
@@ -13569,11 +13875,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>P043</t>
-        </is>
+    <row r="41" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>146</v>
       </c>
       <c r="B41">
         <v>29</v>
@@ -13591,10 +13895,10 @@
         <v>54</v>
       </c>
       <c r="G41">
-        <v>44.66666667</v>
+        <v>44.666666669999998</v>
       </c>
       <c r="H41">
-        <v>6.833333333</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="I41">
         <v>7.5</v>
@@ -13633,10 +13937,10 @@
         <v>49</v>
       </c>
       <c r="U41">
-        <v>7.666666667</v>
+        <v>7.6666666670000003</v>
       </c>
       <c r="V41">
-        <v>7.666666667</v>
+        <v>7.6666666670000003</v>
       </c>
       <c r="W41">
         <v>65</v>
@@ -13894,11 +14198,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P044</t>
-        </is>
+    <row r="42" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>147</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -13916,13 +14218,13 @@
         <v>60</v>
       </c>
       <c r="G42">
-        <v>45.33333333</v>
+        <v>45.333333330000002</v>
       </c>
       <c r="H42">
-        <v>5.866666667</v>
+        <v>5.8666666669999996</v>
       </c>
       <c r="I42">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J42">
         <v>65</v>
@@ -14138,10 +14440,10 @@
         <v>68.75</v>
       </c>
       <c r="CC42">
-        <v>63.88888889</v>
+        <v>63.888888889999997</v>
       </c>
       <c r="CD42">
-        <v>57.14285714</v>
+        <v>57.142857139999997</v>
       </c>
       <c r="CE42">
         <v>90</v>
@@ -14192,7 +14494,7 @@
         <v>35</v>
       </c>
       <c r="CU42">
-        <v>3.181818182</v>
+        <v>3.1818181820000002</v>
       </c>
       <c r="CV42">
         <v>3</v>
@@ -14219,11 +14521,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P045</t>
-        </is>
+    <row r="43" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>148</v>
       </c>
       <c r="B43">
         <v>24.18963948668112</v>
@@ -14232,22 +14532,22 @@
         <v>7.857734942657908</v>
       </c>
       <c r="D43">
-        <v>11.20568176958063</v>
+        <v>11.205681769580631</v>
       </c>
       <c r="E43">
         <v>4.181796207772245</v>
       </c>
       <c r="F43">
-        <v>47.28773217674804</v>
+        <v>47.287732176748037</v>
       </c>
       <c r="G43">
-        <v>20.66666667</v>
+        <v>20.666666670000001</v>
       </c>
       <c r="H43">
-        <v>3.333333333</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="I43">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="J43">
         <v>62</v>
@@ -14256,37 +14556,37 @@
         <v>3</v>
       </c>
       <c r="L43">
-        <v>28.49556925435916</v>
+        <v>28.495569254359161</v>
       </c>
       <c r="M43">
         <v>41.18</v>
       </c>
       <c r="N43">
-        <v>5.451926125440735</v>
+        <v>5.4519261254407354</v>
       </c>
       <c r="O43">
-        <v>28.39120569640287</v>
+        <v>28.391205696402871</v>
       </c>
       <c r="P43">
-        <v>9.726339302293718</v>
+        <v>9.7263393022937183</v>
       </c>
       <c r="Q43">
-        <v>13.96376916807717</v>
+        <v>13.963769168077169</v>
       </c>
       <c r="R43">
-        <v>5.73507810090693</v>
+        <v>5.7350781009069296</v>
       </c>
       <c r="S43">
-        <v>57.73484490665908</v>
+        <v>57.734844906659077</v>
       </c>
       <c r="T43">
-        <v>24.66666667</v>
+        <v>24.666666670000001</v>
       </c>
       <c r="U43">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="V43">
-        <v>5.833333333</v>
+        <v>5.8333333329999997</v>
       </c>
       <c r="W43">
         <v>65</v>
@@ -14295,40 +14595,40 @@
         <v>3</v>
       </c>
       <c r="Y43">
-        <v>36.04501764689063</v>
+        <v>36.045017646890628</v>
       </c>
       <c r="Z43">
         <v>34.28</v>
       </c>
       <c r="AA43">
-        <v>8.486425936112528</v>
+        <v>8.4864259361125285</v>
       </c>
       <c r="AB43">
-        <v>41.15534017523954</v>
+        <v>41.155340175239537</v>
       </c>
       <c r="AC43">
         <v>161.682800538755</v>
       </c>
       <c r="AD43">
-        <v>22.18781116390939</v>
+        <v>22.187811163909391</v>
       </c>
       <c r="AE43">
-        <v>41.06607420994136</v>
+        <v>41.066074209941362</v>
       </c>
       <c r="AF43">
-        <v>39.66622547225248</v>
+        <v>39.666225472252478</v>
       </c>
       <c r="AG43">
         <v>169.4353908290305</v>
       </c>
       <c r="AH43">
-        <v>23.0217702353076</v>
+        <v>23.021770235307599</v>
       </c>
       <c r="AI43">
-        <v>44.89169226017908</v>
+        <v>44.891692260179077</v>
       </c>
       <c r="AJ43">
-        <v>42.80646412573643</v>
+        <v>42.806464125736433</v>
       </c>
       <c r="AK43">
         <v>3</v>
@@ -14364,82 +14664,82 @@
         <v>13</v>
       </c>
       <c r="AV43">
-        <v>7.016371681133939</v>
+        <v>7.0163716811339389</v>
       </c>
       <c r="AW43">
-        <v>5.697632436619116</v>
+        <v>5.6976324366191156</v>
       </c>
       <c r="AX43">
-        <v>5.735178436374066</v>
+        <v>5.7351784363740661</v>
       </c>
       <c r="AY43">
-        <v>18.45567730720524</v>
+        <v>18.455677307205239</v>
       </c>
       <c r="AZ43">
-        <v>6.123035270671243</v>
+        <v>6.1230352706712434</v>
       </c>
       <c r="BA43">
-        <v>5.853212477130034</v>
+        <v>5.8532124771300342</v>
       </c>
       <c r="BB43">
-        <v>5.77748238654768</v>
+        <v>5.7774823865476801</v>
       </c>
       <c r="BC43">
-        <v>412.6164668339931</v>
+        <v>412.61646683399312</v>
       </c>
       <c r="BD43">
         <v>413.1004686116338</v>
       </c>
       <c r="BE43">
-        <v>769.8090546470074</v>
+        <v>769.80905464700743</v>
       </c>
       <c r="BF43">
-        <v>1196.485998569184</v>
+        <v>1196.4859985691839</v>
       </c>
       <c r="BG43">
-        <v>768.9400456359942</v>
+        <v>768.94004563599424</v>
       </c>
       <c r="BH43">
-        <v>1091.124316423989</v>
+        <v>1091.1243164239891</v>
       </c>
       <c r="BI43">
         <v>111.9950571307004</v>
       </c>
       <c r="BJ43">
-        <v>213.2503633599852</v>
+        <v>213.25036335998519</v>
       </c>
       <c r="BK43">
-        <v>7.002162900740231</v>
+        <v>7.0021629007402311</v>
       </c>
       <c r="BL43">
-        <v>182.3960829800286</v>
+        <v>182.39608298002861</v>
       </c>
       <c r="BM43">
         <v>11.30328006044962</v>
       </c>
       <c r="BN43">
-        <v>13.38012781833164</v>
+        <v>13.380127818331641</v>
       </c>
       <c r="BO43">
-        <v>9.552540076168672</v>
+        <v>9.5525400761686718</v>
       </c>
       <c r="BP43">
-        <v>7.894036165023172</v>
+        <v>7.8940361650231718</v>
       </c>
       <c r="BQ43">
-        <v>23.10056876827228</v>
+        <v>23.100568768272279</v>
       </c>
       <c r="BR43">
-        <v>32.63895190641266</v>
+        <v>32.638951906412657</v>
       </c>
       <c r="BS43">
-        <v>56.76067018471469</v>
+        <v>56.760670184714691</v>
       </c>
       <c r="BT43">
         <v>10.66592659428578</v>
       </c>
       <c r="BU43">
-        <v>4.196384267673846</v>
+        <v>4.1963842676738459</v>
       </c>
       <c r="BV43">
         <v>6</v>
@@ -14448,37 +14748,37 @@
         <v>-3</v>
       </c>
       <c r="BX43">
-        <v>7.002162900740231</v>
+        <v>7.0021629007402311</v>
       </c>
       <c r="BY43">
-        <v>0.8622065739887405</v>
+        <v>0.86220657398874045</v>
       </c>
       <c r="BZ43">
-        <v>182.3960829800286</v>
+        <v>182.39608298002861</v>
       </c>
       <c r="CA43">
-        <v>60.73783066110175</v>
+        <v>60.737830661101754</v>
       </c>
       <c r="CB43">
-        <v>75.89588078445659</v>
+        <v>75.895880784456594</v>
       </c>
       <c r="CC43">
-        <v>74.86868664623827</v>
+        <v>74.868686646238274</v>
       </c>
       <c r="CD43">
-        <v>83.74297672256215</v>
+        <v>83.742976722562148</v>
       </c>
       <c r="CE43">
-        <v>65.88048887528056</v>
+        <v>65.880488875280562</v>
       </c>
       <c r="CF43">
-        <v>35.27973241757003</v>
+        <v>35.279732417570031</v>
       </c>
       <c r="CG43">
-        <v>34.92960532883077</v>
+        <v>34.929605328830768</v>
       </c>
       <c r="CH43">
-        <v>8.664491863113353</v>
+        <v>8.6644918631133532</v>
       </c>
       <c r="CI43">
         <v>6.786047187001806</v>
@@ -14496,59 +14796,57 @@
         <v>3.719690894067651</v>
       </c>
       <c r="CN43">
-        <v>3.720626416900861</v>
+        <v>3.7206264169008612</v>
       </c>
       <c r="CO43">
-        <v>11.70350658868757</v>
+        <v>11.703506588687571</v>
       </c>
       <c r="CP43">
-        <v>11.638488579684</v>
+        <v>11.638488579683999</v>
       </c>
       <c r="CQ43">
-        <v>9.500672779538869</v>
+        <v>9.5006727795388688</v>
       </c>
       <c r="CR43">
         <v>11.3373264756752</v>
       </c>
       <c r="CS43">
-        <v>8.58248510382977</v>
+        <v>8.5824851038297698</v>
       </c>
       <c r="CT43">
-        <v>68.28383847086357</v>
+        <v>68.283838470863572</v>
       </c>
       <c r="CU43">
-        <v>6.20762167919206</v>
+        <v>6.2076216791920604</v>
       </c>
       <c r="CV43">
-        <v>8.169124825153906</v>
+        <v>8.1691248251539061</v>
       </c>
       <c r="CW43">
-        <v>2.723041608405658</v>
+        <v>2.7230416084056581</v>
       </c>
       <c r="CX43">
-        <v>84.27859954666422</v>
+        <v>84.278599546664225</v>
       </c>
       <c r="CY43">
-        <v>3.520158677450863</v>
+        <v>3.5201586774508629</v>
       </c>
       <c r="CZ43">
-        <v>2.128163686317952</v>
+        <v>2.1281636863179521</v>
       </c>
       <c r="DA43">
-        <v>73.70038122300355</v>
+        <v>73.700381223003546</v>
       </c>
       <c r="DB43">
-        <v>29.51754936958127</v>
+        <v>29.517549369581271</v>
       </c>
       <c r="DC43">
-        <v>103.2179305925848</v>
+        <v>103.21793059258481</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P046</t>
-        </is>
+    <row r="44" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>149</v>
       </c>
       <c r="B44">
         <v>30</v>
@@ -14566,13 +14864,13 @@
         <v>60</v>
       </c>
       <c r="G44">
-        <v>30.33333333</v>
+        <v>30.333333329999999</v>
       </c>
       <c r="H44">
-        <v>2.833333333</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="I44">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="J44">
         <v>65</v>
@@ -14584,7 +14882,7 @@
         <v>50</v>
       </c>
       <c r="M44">
-        <v>18.31</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="N44">
         <v>12</v>
@@ -14608,10 +14906,10 @@
         <v>27</v>
       </c>
       <c r="U44">
-        <v>2.833333333</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="V44">
-        <v>5.666666667</v>
+        <v>5.6666666670000003</v>
       </c>
       <c r="W44">
         <v>65</v>
@@ -14788,7 +15086,7 @@
         <v>93.75</v>
       </c>
       <c r="CC44">
-        <v>88.88888889</v>
+        <v>88.888888890000004</v>
       </c>
       <c r="CD44">
         <v>100</v>
@@ -14842,13 +15140,13 @@
         <v>72</v>
       </c>
       <c r="CU44">
-        <v>6.545454545</v>
+        <v>6.5454545450000001</v>
       </c>
       <c r="CV44">
         <v>5</v>
       </c>
       <c r="CW44">
-        <v>1.666666667</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="CX44">
         <v>100</v>
@@ -14869,11 +15167,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P047</t>
-        </is>
+    <row r="45" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>150</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -14894,7 +15190,7 @@
         <v>36</v>
       </c>
       <c r="H45">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="I45">
         <v>10.33333333</v>
@@ -14930,13 +15226,13 @@
         <v>60</v>
       </c>
       <c r="T45">
-        <v>29.33333333</v>
+        <v>29.333333329999999</v>
       </c>
       <c r="U45">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="V45">
-        <v>6.833333333</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="W45">
         <v>65</v>
@@ -15113,10 +15409,10 @@
         <v>75</v>
       </c>
       <c r="CC45">
-        <v>86.11111111</v>
+        <v>86.111111109999996</v>
       </c>
       <c r="CD45">
-        <v>82.14285714</v>
+        <v>82.142857140000004</v>
       </c>
       <c r="CE45">
         <v>100</v>
@@ -15167,13 +15463,13 @@
         <v>52</v>
       </c>
       <c r="CU45">
-        <v>4.727272727</v>
+        <v>4.7272727269999999</v>
       </c>
       <c r="CV45">
         <v>4</v>
       </c>
       <c r="CW45">
-        <v>1.333333333</v>
+        <v>1.3333333329999999</v>
       </c>
       <c r="CX45">
         <v>100</v>
@@ -15194,11 +15490,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P048</t>
-        </is>
+    <row r="46" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>151</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -15216,7 +15510,7 @@
         <v>6</v>
       </c>
       <c r="G46">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -15255,13 +15549,13 @@
         <v>57</v>
       </c>
       <c r="T46">
-        <v>27.33333333</v>
+        <v>27.333333329999999</v>
       </c>
       <c r="U46">
         <v>3.5</v>
       </c>
       <c r="V46">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="W46">
         <v>65</v>
@@ -15273,7 +15567,7 @@
         <v>32</v>
       </c>
       <c r="Z46">
-        <v>35.59</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="AA46">
         <v>5</v>
@@ -15402,7 +15696,7 @@
         <v>10</v>
       </c>
       <c r="BQ46">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="BR46">
         <v>23.25</v>
@@ -15438,10 +15732,10 @@
         <v>31.25</v>
       </c>
       <c r="CC46">
-        <v>94.44444444</v>
+        <v>94.444444439999998</v>
       </c>
       <c r="CD46">
-        <v>71.42857143000001</v>
+        <v>71.428571430000005</v>
       </c>
       <c r="CE46">
         <v>50</v>
@@ -15492,13 +15786,13 @@
         <v>83</v>
       </c>
       <c r="CU46">
-        <v>7.545454545</v>
+        <v>7.5454545450000001</v>
       </c>
       <c r="CV46">
         <v>11</v>
       </c>
       <c r="CW46">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="CX46">
         <v>60</v>
@@ -15519,11 +15813,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P049</t>
-        </is>
+    <row r="47" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>152</v>
       </c>
       <c r="B47">
         <v>26</v>
@@ -15541,10 +15833,10 @@
         <v>54</v>
       </c>
       <c r="G47">
-        <v>28.66666667</v>
+        <v>28.666666670000001</v>
       </c>
       <c r="H47">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="I47">
         <v>6.5</v>
@@ -15580,13 +15872,13 @@
         <v>60</v>
       </c>
       <c r="T47">
-        <v>27.33333333</v>
+        <v>27.333333329999999</v>
       </c>
       <c r="U47">
-        <v>3.333333333</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="V47">
-        <v>6.833333333</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="W47">
         <v>65</v>
@@ -15763,10 +16055,10 @@
         <v>81.25</v>
       </c>
       <c r="CC47">
-        <v>52.77777778</v>
+        <v>52.777777780000001</v>
       </c>
       <c r="CD47">
-        <v>85.71428571</v>
+        <v>85.714285709999999</v>
       </c>
       <c r="CE47">
         <v>30</v>
@@ -15817,7 +16109,7 @@
         <v>72</v>
       </c>
       <c r="CU47">
-        <v>6.545454545</v>
+        <v>6.5454545450000001</v>
       </c>
       <c r="CV47">
         <v>30</v>
@@ -15844,11 +16136,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P050</t>
-        </is>
+    <row r="48" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>153</v>
       </c>
       <c r="B48">
         <v>29</v>
@@ -15866,13 +16156,13 @@
         <v>58</v>
       </c>
       <c r="G48">
-        <v>50.66666667</v>
+        <v>50.666666669999998</v>
       </c>
       <c r="H48">
-        <v>6.166666667</v>
+        <v>6.1666666670000003</v>
       </c>
       <c r="I48">
-        <v>9.833333333000001</v>
+        <v>9.8333333330000006</v>
       </c>
       <c r="J48">
         <v>65</v>
@@ -15908,7 +16198,7 @@
         <v>43</v>
       </c>
       <c r="U48">
-        <v>3.833333333</v>
+        <v>3.8333333330000001</v>
       </c>
       <c r="V48">
         <v>9</v>
@@ -15932,28 +16222,28 @@
         <v>55</v>
       </c>
       <c r="AC48">
-        <v>171.9170313367501</v>
+        <v>171.91703133675011</v>
       </c>
       <c r="AD48">
-        <v>23.56439503768871</v>
+        <v>23.564395037688708</v>
       </c>
       <c r="AE48">
-        <v>45.47939094555661</v>
+        <v>45.479390945556609</v>
       </c>
       <c r="AF48">
         <v>43.23507810275548</v>
       </c>
       <c r="AG48">
-        <v>170.8430238319415</v>
+        <v>170.84302383194151</v>
       </c>
       <c r="AH48">
-        <v>22.95296326332386</v>
+        <v>22.952963263323859</v>
       </c>
       <c r="AI48">
-        <v>44.63955192295744</v>
+        <v>44.639551922957438</v>
       </c>
       <c r="AJ48">
-        <v>43.73089772498487</v>
+        <v>43.730897724984871</v>
       </c>
       <c r="AK48">
         <v>5</v>
@@ -16082,16 +16372,16 @@
         <v>163.12</v>
       </c>
       <c r="CA48">
-        <v>82.51559824765191</v>
+        <v>82.515598247651909</v>
       </c>
       <c r="CB48">
         <v>100</v>
       </c>
       <c r="CC48">
-        <v>94.44444444</v>
+        <v>94.444444439999998</v>
       </c>
       <c r="CD48">
-        <v>92.50287917254144</v>
+        <v>92.502879172541441</v>
       </c>
       <c r="CE48">
         <v>98</v>
@@ -16103,19 +16393,19 @@
         <v>26</v>
       </c>
       <c r="CH48">
-        <v>12.30492511811956</v>
+        <v>12.304925118119559</v>
       </c>
       <c r="CI48">
-        <v>9.369647691223584</v>
+        <v>9.3696476912235838</v>
       </c>
       <c r="CJ48">
-        <v>5.422503528587178</v>
+        <v>5.4225035285871783</v>
       </c>
       <c r="CK48">
-        <v>5.278613757001203</v>
+        <v>5.2786137570012031</v>
       </c>
       <c r="CL48">
-        <v>21.73497680405996</v>
+        <v>21.734976804059961</v>
       </c>
       <c r="CM48">
         <v>0</v>
@@ -16142,7 +16432,7 @@
         <v>100</v>
       </c>
       <c r="CU48">
-        <v>9.090909091</v>
+        <v>9.0909090910000003</v>
       </c>
       <c r="CV48">
         <v>3</v>
@@ -16169,11 +16459,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P053</t>
-        </is>
+    <row r="49" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>154</v>
       </c>
       <c r="B49">
         <v>26</v>
@@ -16233,10 +16521,10 @@
         <v>24</v>
       </c>
       <c r="U49">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="V49">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="W49">
         <v>65</v>
@@ -16467,13 +16755,13 @@
         <v>82</v>
       </c>
       <c r="CU49">
-        <v>7.454545455</v>
+        <v>7.4545454549999999</v>
       </c>
       <c r="CV49">
         <v>14</v>
       </c>
       <c r="CW49">
-        <v>4.666666667</v>
+        <v>4.6666666670000003</v>
       </c>
       <c r="CX49">
         <v>100</v>
@@ -16494,11 +16782,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P055</t>
-        </is>
+    <row r="50" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>155</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -16522,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1.333333333</v>
+        <v>1.3333333329999999</v>
       </c>
       <c r="J50">
         <v>27</v>
@@ -16558,10 +16844,10 @@
         <v>26</v>
       </c>
       <c r="U50">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="V50">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="W50">
         <v>65</v>
@@ -16573,7 +16859,7 @@
         <v>11</v>
       </c>
       <c r="Z50">
-        <v>36.87</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="AA50">
         <v>6</v>
@@ -16633,7 +16919,7 @@
         <v>7</v>
       </c>
       <c r="AT50">
-        <v>4.927032031446016</v>
+        <v>4.9270320314460161</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -16669,13 +16955,13 @@
         <v>1717</v>
       </c>
       <c r="BF50">
-        <v>1603.813181204626</v>
+        <v>1603.8131812046261</v>
       </c>
       <c r="BG50">
         <v>1053</v>
       </c>
       <c r="BH50">
-        <v>1403.903950589697</v>
+        <v>1403.9039505896969</v>
       </c>
       <c r="BI50">
         <v>210.94</v>
@@ -16702,13 +16988,13 @@
         <v>0</v>
       </c>
       <c r="BQ50">
-        <v>39.00432474272657</v>
+        <v>39.004324742726567</v>
       </c>
       <c r="BR50">
-        <v>56.10666700436052</v>
+        <v>56.106667004360517</v>
       </c>
       <c r="BS50">
-        <v>96.1717014625917</v>
+        <v>96.171701462591699</v>
       </c>
       <c r="BT50">
         <v>0</v>
@@ -16792,13 +17078,13 @@
         <v>101</v>
       </c>
       <c r="CU50">
-        <v>9.181818182000001</v>
+        <v>9.1818181820000007</v>
       </c>
       <c r="CV50">
         <v>5</v>
       </c>
       <c r="CW50">
-        <v>1.666666667</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="CX50">
         <v>35</v>
@@ -16819,11 +17105,9 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P056</t>
-        </is>
+    <row r="51" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>156</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -16856,13 +17140,13 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>-13.76456169401554</v>
+        <v>-13.764561694015541</v>
       </c>
       <c r="M51">
-        <v>215.5176703224166</v>
+        <v>215.51767032241659</v>
       </c>
       <c r="N51">
-        <v>-3.661595655224316</v>
+        <v>-3.6615956552243158</v>
       </c>
       <c r="O51">
         <v>16</v>
@@ -16901,34 +17185,34 @@
         <v>44.59374543115365</v>
       </c>
       <c r="AA51">
-        <v>4.666702650832183</v>
+        <v>4.6667026508321827</v>
       </c>
       <c r="AB51">
-        <v>2.784204005620197</v>
+        <v>2.7842040056201971</v>
       </c>
       <c r="AC51">
-        <v>147.6013707521969</v>
+        <v>147.60137075219691</v>
       </c>
       <c r="AD51">
-        <v>19.6550602976576</v>
+        <v>19.655060297657599</v>
       </c>
       <c r="AE51">
-        <v>34.60413424717152</v>
+        <v>34.604134247171523</v>
       </c>
       <c r="AF51">
-        <v>34.76559521017196</v>
+        <v>34.765595210171959</v>
       </c>
       <c r="AG51">
-        <v>174.0649282492589</v>
+        <v>174.06492824925891</v>
       </c>
       <c r="AH51">
-        <v>24.1710532674845</v>
+        <v>24.171053267484499</v>
       </c>
       <c r="AI51">
-        <v>47.75077541284311</v>
+        <v>47.750775412843112</v>
       </c>
       <c r="AJ51">
-        <v>43.50941666599871</v>
+        <v>43.509416665998707</v>
       </c>
       <c r="AK51">
         <v>1</v>
@@ -16964,37 +17248,37 @@
         <v>14</v>
       </c>
       <c r="AV51">
-        <v>6.884693374851641</v>
+        <v>6.8846933748516408</v>
       </c>
       <c r="AW51">
         <v>5.319355403420996</v>
       </c>
       <c r="AX51">
-        <v>4.926556913044568</v>
+        <v>4.9265569130445677</v>
       </c>
       <c r="AY51">
         <v>17.14603132920281</v>
       </c>
       <c r="AZ51">
-        <v>4.538645263952617</v>
+        <v>4.5386452639526169</v>
       </c>
       <c r="BA51">
-        <v>3.915312386668439</v>
+        <v>3.9153123866684392</v>
       </c>
       <c r="BB51">
         <v>4.091278981012592</v>
       </c>
       <c r="BC51">
-        <v>547.8964510893251</v>
+        <v>547.89645108932507</v>
       </c>
       <c r="BD51">
-        <v>587.8126096166015</v>
+        <v>587.81260961660155</v>
       </c>
       <c r="BE51">
         <v>1007.939087739769</v>
       </c>
       <c r="BF51">
-        <v>1434.272782711034</v>
+        <v>1434.2727827110341</v>
       </c>
       <c r="BG51">
         <v>984.3166250431716</v>
@@ -17006,40 +17290,40 @@
         <v>150.5164395902037</v>
       </c>
       <c r="BJ51">
-        <v>268.9280381390146</v>
+        <v>268.92803813901457</v>
       </c>
       <c r="BK51">
-        <v>13.45007431889596</v>
+        <v>13.450074318895959</v>
       </c>
       <c r="BL51">
-        <v>244.3555632998088</v>
+        <v>244.35556329980881</v>
       </c>
       <c r="BM51">
-        <v>-7.041444266516434</v>
+        <v>-7.0414442665164341</v>
       </c>
       <c r="BN51">
         <v>11.70173666223787</v>
       </c>
       <c r="BO51">
-        <v>7.193045249687927</v>
+        <v>7.1930452496879269</v>
       </c>
       <c r="BP51">
-        <v>5.52583586465761</v>
+        <v>5.5258358646576102</v>
       </c>
       <c r="BQ51">
-        <v>33.17043847863451</v>
+        <v>33.170438478634509</v>
       </c>
       <c r="BR51">
         <v>44.76276330401118</v>
       </c>
       <c r="BS51">
-        <v>78.67872203314893</v>
+        <v>78.678722033148929</v>
       </c>
       <c r="BT51">
-        <v>-9.824284022621901</v>
+        <v>-9.8242840226219013</v>
       </c>
       <c r="BU51">
-        <v>-2.928701133397109</v>
+        <v>-2.9287011333971091</v>
       </c>
       <c r="BV51">
         <v>-10.5</v>
@@ -17048,107 +17332,105 @@
         <v>-3</v>
       </c>
       <c r="BX51">
-        <v>13.45007431889596</v>
+        <v>13.450074318895959</v>
       </c>
       <c r="BY51">
-        <v>2.291792623216032</v>
+        <v>2.2917926232160322</v>
       </c>
       <c r="BZ51">
-        <v>244.3555632998088</v>
+        <v>244.35556329980881</v>
       </c>
       <c r="CA51">
         <v>5.592901001112601</v>
       </c>
       <c r="CB51">
-        <v>56.6968949160296</v>
+        <v>56.696894916029599</v>
       </c>
       <c r="CC51">
-        <v>50.462916326729</v>
+        <v>50.462916326729001</v>
       </c>
       <c r="CD51">
-        <v>67.69720698474977</v>
+        <v>67.697206984749769</v>
       </c>
       <c r="CE51">
-        <v>7.134891582442052</v>
+        <v>7.1348915824420516</v>
       </c>
       <c r="CF51">
-        <v>56.19375742155866</v>
+        <v>56.193757421558658</v>
       </c>
       <c r="CG51">
-        <v>46.97084570013705</v>
+        <v>46.970845700137048</v>
       </c>
       <c r="CH51">
-        <v>0.5646665967964886</v>
+        <v>0.56466659679648856</v>
       </c>
       <c r="CI51">
-        <v>0.9231490290607516</v>
+        <v>0.92314902906075158</v>
       </c>
       <c r="CJ51">
-        <v>4.891967470138874</v>
+        <v>4.8919674701388738</v>
       </c>
       <c r="CK51">
-        <v>5.633106978881795</v>
+        <v>5.6331069788817949</v>
       </c>
       <c r="CL51">
         <v>4.664608223627031</v>
       </c>
       <c r="CM51">
-        <v>8.889723331297654</v>
+        <v>8.8897233312976542</v>
       </c>
       <c r="CN51">
-        <v>7.356518237436672</v>
+        <v>7.3565182374366724</v>
       </c>
       <c r="CO51">
-        <v>19.90564747479275</v>
+        <v>19.905647474792751</v>
       </c>
       <c r="CP51">
         <v>20.01963575176319</v>
       </c>
       <c r="CQ51">
-        <v>14.33559994743015</v>
+        <v>14.335599947430151</v>
       </c>
       <c r="CR51">
         <v>15.60289855855979</v>
       </c>
       <c r="CS51">
-        <v>12.32445453956501</v>
+        <v>12.324454539565011</v>
       </c>
       <c r="CT51">
-        <v>52.32899704521748</v>
+        <v>52.328997045217477</v>
       </c>
       <c r="CU51">
-        <v>4.757181549515526</v>
+        <v>4.7571815495155256</v>
       </c>
       <c r="CV51">
         <v>18.55941548327662</v>
       </c>
       <c r="CW51">
-        <v>6.186471827695483</v>
+        <v>6.1864718276954829</v>
       </c>
       <c r="CX51">
-        <v>40.17032872803016</v>
+        <v>40.170328728030157</v>
       </c>
       <c r="CY51">
-        <v>-0.2267506796390704</v>
+        <v>-0.22675067963907039</v>
       </c>
       <c r="CZ51">
-        <v>4.923045470279484</v>
+        <v>4.9230454702794839</v>
       </c>
       <c r="DA51">
-        <v>20.85499511037566</v>
+        <v>20.854995110375661</v>
       </c>
       <c r="DB51">
         <v>25.88036050610911</v>
       </c>
       <c r="DC51">
-        <v>46.73535561648477</v>
+        <v>46.735355616484767</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P057</t>
-        </is>
+    <row r="52" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>157</v>
       </c>
       <c r="B52">
         <v>28</v>
@@ -17172,7 +17454,7 @@
         <v>3.5</v>
       </c>
       <c r="I52">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="J52">
         <v>65</v>
@@ -17205,7 +17487,7 @@
         <v>60</v>
       </c>
       <c r="T52">
-        <v>39.66666667</v>
+        <v>39.666666669999998</v>
       </c>
       <c r="U52">
         <v>4</v>
@@ -17304,7 +17586,7 @@
         <v>9</v>
       </c>
       <c r="BA52">
-        <v>8.272773062492668</v>
+        <v>8.2727730624926679</v>
       </c>
       <c r="BB52">
         <v>11</v>
@@ -17370,7 +17652,7 @@
         <v>1</v>
       </c>
       <c r="BW52">
-        <v>-1.037818870095437</v>
+        <v>-1.0378188700954369</v>
       </c>
       <c r="BX52">
         <v>0</v>
@@ -17388,7 +17670,7 @@
         <v>84.375</v>
       </c>
       <c r="CC52">
-        <v>63.88888889</v>
+        <v>63.888888889999997</v>
       </c>
       <c r="CD52">
         <v>50</v>
@@ -17442,13 +17724,13 @@
         <v>54</v>
       </c>
       <c r="CU52">
-        <v>4.909090909</v>
+        <v>4.9090909089999997</v>
       </c>
       <c r="CV52">
         <v>11</v>
       </c>
       <c r="CW52">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="CX52">
         <v>100</v>
@@ -17469,11 +17751,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P058</t>
-        </is>
+    <row r="53" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>158</v>
       </c>
       <c r="B53">
         <v>17</v>
@@ -17530,13 +17810,13 @@
         <v>60</v>
       </c>
       <c r="T53">
-        <v>37.33333333</v>
+        <v>37.333333330000002</v>
       </c>
       <c r="U53">
-        <v>4.166666667</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="V53">
-        <v>7.166666667</v>
+        <v>7.1666666670000003</v>
       </c>
       <c r="W53">
         <v>65</v>
@@ -17659,10 +17939,10 @@
         <v>186.69</v>
       </c>
       <c r="BK53">
-        <v>6.97929303901201</v>
+        <v>6.9792930390120098</v>
       </c>
       <c r="BL53">
-        <v>172.234662624172</v>
+        <v>172.23466262417199</v>
       </c>
       <c r="BM53">
         <v>0</v>
@@ -17698,34 +17978,34 @@
         <v>2</v>
       </c>
       <c r="BX53">
-        <v>6.97929303901201</v>
+        <v>6.9792930390120098</v>
       </c>
       <c r="BY53">
-        <v>0.9064362443995861</v>
+        <v>0.90643624439958614</v>
       </c>
       <c r="BZ53">
-        <v>172.234662624172</v>
+        <v>172.23466262417199</v>
       </c>
       <c r="CA53">
-        <v>40.05068977785196</v>
+        <v>40.050689777851957</v>
       </c>
       <c r="CB53">
-        <v>76.45907079085104</v>
+        <v>76.459070790851044</v>
       </c>
       <c r="CC53">
-        <v>64.89425887907244</v>
+        <v>64.894258879072439</v>
       </c>
       <c r="CD53">
-        <v>81.24118640830685</v>
+        <v>81.241186408306845</v>
       </c>
       <c r="CE53">
-        <v>42.57713926991249</v>
+        <v>42.577139269912493</v>
       </c>
       <c r="CF53">
-        <v>43.05586602696255</v>
+        <v>43.055866026962548</v>
       </c>
       <c r="CG53">
-        <v>40.23278272067824</v>
+        <v>40.232782720678237</v>
       </c>
       <c r="CH53">
         <v>6</v>
@@ -17743,37 +18023,37 @@
         <v>6</v>
       </c>
       <c r="CM53">
-        <v>5.810605326028638</v>
+        <v>5.8106053260286377</v>
       </c>
       <c r="CN53">
-        <v>5.68752871494608</v>
+        <v>5.6875287149460796</v>
       </c>
       <c r="CO53">
-        <v>14.9254399336825</v>
+        <v>14.925439933682499</v>
       </c>
       <c r="CP53">
-        <v>14.98613382488401</v>
+        <v>14.986133824884011</v>
       </c>
       <c r="CQ53">
-        <v>10.94751321374195</v>
+        <v>10.947513213741949</v>
       </c>
       <c r="CR53">
-        <v>12.37451443942454</v>
+        <v>12.374514439424541</v>
       </c>
       <c r="CS53">
-        <v>9.650268738339674</v>
+        <v>9.6502687383396744</v>
       </c>
       <c r="CT53">
-        <v>60.58693718029924</v>
+        <v>60.586937180299238</v>
       </c>
       <c r="CU53">
-        <v>5.507903380004636</v>
+        <v>5.5079033800046364</v>
       </c>
       <c r="CV53">
-        <v>13.03410498432473</v>
+        <v>13.034104984324729</v>
       </c>
       <c r="CW53">
-        <v>4.344701661452415</v>
+        <v>4.3447016614524152</v>
       </c>
       <c r="CX53">
         <v>95</v>
@@ -17794,11 +18074,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P059</t>
-        </is>
+    <row r="54" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>159</v>
       </c>
       <c r="B54">
         <v>29</v>
@@ -17819,10 +18097,10 @@
         <v>37</v>
       </c>
       <c r="H54">
-        <v>3.833333333</v>
+        <v>3.8333333330000001</v>
       </c>
       <c r="I54">
-        <v>8.333333333000001</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="J54">
         <v>65</v>
@@ -17858,7 +18136,7 @@
         <v>44</v>
       </c>
       <c r="U54">
-        <v>6.166666667</v>
+        <v>6.1666666670000003</v>
       </c>
       <c r="V54">
         <v>10</v>
@@ -17978,7 +18256,7 @@
         <v>898</v>
       </c>
       <c r="BI54">
-        <v>88.65000000000001</v>
+        <v>88.65</v>
       </c>
       <c r="BJ54">
         <v>134.06</v>
@@ -18008,7 +18286,7 @@
         <v>21.5</v>
       </c>
       <c r="BS54">
-        <v>39.12</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="BT54">
         <v>20</v>
@@ -18032,25 +18310,25 @@
         <v>167.19</v>
       </c>
       <c r="CA54">
-        <v>72.72731225687035</v>
+        <v>72.727312256870349</v>
       </c>
       <c r="CB54">
-        <v>85.29382166887083</v>
+        <v>85.293821668870834</v>
       </c>
       <c r="CC54">
-        <v>79.62412827867831</v>
+        <v>79.624128278678313</v>
       </c>
       <c r="CD54">
         <v>89.59787080921582</v>
       </c>
       <c r="CE54">
-        <v>77.80157161335073</v>
+        <v>77.801571613350731</v>
       </c>
       <c r="CF54">
-        <v>30.68584799123588</v>
+        <v>30.685847991235882</v>
       </c>
       <c r="CG54">
-        <v>32.84036382890741</v>
+        <v>32.840363828907407</v>
       </c>
       <c r="CH54">
         <v>6</v>
@@ -18077,25 +18355,25 @@
         <v>10.01773631024678</v>
       </c>
       <c r="CP54">
-        <v>9.953191038849003</v>
+        <v>9.9531910388490026</v>
       </c>
       <c r="CQ54">
-        <v>8.202639278680003</v>
+        <v>8.2026392786800031</v>
       </c>
       <c r="CR54">
         <v>10.03119181656761</v>
       </c>
       <c r="CS54">
-        <v>7.542904051618708</v>
+        <v>7.5429040516187076</v>
       </c>
       <c r="CT54">
         <v>70.6013495584899</v>
       </c>
       <c r="CU54">
-        <v>6.418304505343481</v>
+        <v>6.4183045053434808</v>
       </c>
       <c r="CV54">
-        <v>6.560680395128846</v>
+        <v>6.5606803951288457</v>
       </c>
       <c r="CW54">
         <v>2.186893465096774</v>
@@ -18119,11 +18397,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P060</t>
-        </is>
+    <row r="55" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>160</v>
       </c>
       <c r="B55">
         <v>30</v>
@@ -18144,7 +18420,7 @@
         <v>40</v>
       </c>
       <c r="H55">
-        <v>6.833333333</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="I55">
         <v>10.08333333</v>
@@ -18180,10 +18456,10 @@
         <v>60</v>
       </c>
       <c r="T55">
-        <v>44.66666667</v>
+        <v>44.666666669999998</v>
       </c>
       <c r="U55">
-        <v>7.166666667</v>
+        <v>7.1666666670000003</v>
       </c>
       <c r="V55">
         <v>10.33333333</v>
@@ -18303,7 +18579,7 @@
         <v>863</v>
       </c>
       <c r="BI55">
-        <v>42.77482213863205</v>
+        <v>42.774822138632047</v>
       </c>
       <c r="BJ55">
         <v>99.25460189404555</v>
@@ -18330,7 +18606,7 @@
         <v>11.9</v>
       </c>
       <c r="BR55">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="BS55">
         <v>23.25</v>
@@ -18417,7 +18693,7 @@
         <v>65</v>
       </c>
       <c r="CU55">
-        <v>5.909090909</v>
+        <v>5.9090909089999997</v>
       </c>
       <c r="CV55">
         <v>3</v>
@@ -18444,11 +18720,9 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P061</t>
-        </is>
+    <row r="56" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>161</v>
       </c>
       <c r="B56">
         <v>30</v>
@@ -18466,13 +18740,13 @@
         <v>60</v>
       </c>
       <c r="G56">
-        <v>32.66666667</v>
+        <v>32.666666669999998</v>
       </c>
       <c r="H56">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="I56">
-        <v>8.333333333000001</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="J56">
         <v>65</v>
@@ -18505,13 +18779,13 @@
         <v>60</v>
       </c>
       <c r="T56">
-        <v>35.66666667</v>
+        <v>35.666666669999998</v>
       </c>
       <c r="U56">
-        <v>5.166666667</v>
+        <v>5.1666666670000003</v>
       </c>
       <c r="V56">
-        <v>9.166666666999999</v>
+        <v>9.1666666669999994</v>
       </c>
       <c r="W56">
         <v>65</v>
@@ -18658,7 +18932,7 @@
         <v>22.54</v>
       </c>
       <c r="BS56">
-        <v>40.59</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="BT56">
         <v>10</v>
@@ -18688,7 +18962,7 @@
         <v>96.875</v>
       </c>
       <c r="CC56">
-        <v>80.55555556</v>
+        <v>80.555555560000002</v>
       </c>
       <c r="CD56">
         <v>100</v>
@@ -18742,7 +19016,7 @@
         <v>76</v>
       </c>
       <c r="CU56">
-        <v>6.909090909</v>
+        <v>6.9090909089999997</v>
       </c>
       <c r="CV56">
         <v>6</v>
@@ -18769,11 +19043,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P062</t>
-        </is>
+    <row r="57" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>162</v>
       </c>
       <c r="B57">
         <v>22</v>
@@ -18830,7 +19102,7 @@
         <v>59</v>
       </c>
       <c r="T57">
-        <v>55.33333333</v>
+        <v>55.333333330000002</v>
       </c>
       <c r="U57">
         <v>7</v>
@@ -18977,10 +19249,10 @@
         <v>10</v>
       </c>
       <c r="BQ57">
-        <v>25.94664878049989</v>
+        <v>25.946648780499888</v>
       </c>
       <c r="BR57">
-        <v>38.18433697460554</v>
+        <v>38.184336974605543</v>
       </c>
       <c r="BS57">
         <v>65.30713537894465</v>
@@ -19007,25 +19279,25 @@
         <v>123.34</v>
       </c>
       <c r="CA57">
-        <v>71.90139842224339</v>
+        <v>71.901398422243389</v>
       </c>
       <c r="CB57">
-        <v>72.91544163830697</v>
+        <v>72.915441638306973</v>
       </c>
       <c r="CC57">
-        <v>80.53348580349683</v>
+        <v>80.533485803496831</v>
       </c>
       <c r="CD57">
-        <v>83.88062277132423</v>
+        <v>83.880622771324227</v>
       </c>
       <c r="CE57">
-        <v>78.89202120526315</v>
+        <v>78.892021205263148</v>
       </c>
       <c r="CF57">
         <v>31.10741736011834</v>
       </c>
       <c r="CG57">
-        <v>31.79689710225949</v>
+        <v>31.796897102259489</v>
       </c>
       <c r="CH57">
         <v>6</v>
@@ -19046,25 +19318,25 @@
         <v>2.539163879985332</v>
       </c>
       <c r="CN57">
-        <v>2.45140131210535</v>
+        <v>2.4514013121053502</v>
       </c>
       <c r="CO57">
-        <v>9.914861941545293</v>
+        <v>9.9148619415452934</v>
       </c>
       <c r="CP57">
-        <v>9.761821563348073</v>
+        <v>9.7618215633480734</v>
       </c>
       <c r="CQ57">
-        <v>8.846374984855924</v>
+        <v>8.8463749848559239</v>
       </c>
       <c r="CR57">
-        <v>10.97166949780737</v>
+        <v>10.971669497807371</v>
       </c>
       <c r="CS57">
-        <v>8.12207098214472</v>
+        <v>8.1220709821447201</v>
       </c>
       <c r="CT57">
-        <v>73.02730485054187</v>
+        <v>73.027304850541867</v>
       </c>
       <c r="CU57">
         <v>6.638845895557079</v>
@@ -19094,11 +19366,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P063</t>
-        </is>
+    <row r="58" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>163</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -19308,7 +19578,7 @@
         <v>25.31</v>
       </c>
       <c r="BS58">
-        <v>72.56999999999999</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="BT58">
         <v>0</v>
@@ -19338,19 +19608,19 @@
         <v>87.5</v>
       </c>
       <c r="CC58">
-        <v>55.42440050743397</v>
+        <v>55.424400507433973</v>
       </c>
       <c r="CD58">
-        <v>76.82112844552491</v>
+        <v>76.821128445524906</v>
       </c>
       <c r="CE58">
         <v>20.09695709411238</v>
       </c>
       <c r="CF58">
-        <v>50.82745904200868</v>
+        <v>50.827459042008677</v>
       </c>
       <c r="CG58">
-        <v>45.07509312992603</v>
+        <v>45.075093129926032</v>
       </c>
       <c r="CH58">
         <v>6</v>
@@ -19368,16 +19638,16 @@
         <v>6</v>
       </c>
       <c r="CM58">
-        <v>7.806856197483063</v>
+        <v>7.8068561974830626</v>
       </c>
       <c r="CN58">
-        <v>7.312464088663122</v>
+        <v>7.3124640886631216</v>
       </c>
       <c r="CO58">
-        <v>18.05003349818234</v>
+        <v>18.050033498182341</v>
       </c>
       <c r="CP58">
-        <v>18.20358506588814</v>
+        <v>18.203585065888142</v>
       </c>
       <c r="CQ58">
         <v>12.58793600943409</v>
@@ -19389,13 +19659,13 @@
         <v>10.89671632136694</v>
       </c>
       <c r="CT58">
-        <v>53.87242376491746</v>
+        <v>53.872423764917457</v>
       </c>
       <c r="CU58">
-        <v>4.897493069480345</v>
+        <v>4.8974930694803449</v>
       </c>
       <c r="CV58">
-        <v>17.34113732122561</v>
+        <v>17.341137321225609</v>
       </c>
       <c r="CW58">
         <v>5.780379107064114</v>
@@ -19419,11 +19689,9 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P064</t>
-        </is>
+    <row r="59" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>164</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -19483,10 +19751,10 @@
         <v>17</v>
       </c>
       <c r="U59">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="V59">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="W59">
         <v>65</v>
@@ -19585,10 +19853,10 @@
         <v>2</v>
       </c>
       <c r="BC59">
-        <v>599.4178229955054</v>
+        <v>599.41782299550539</v>
       </c>
       <c r="BD59">
-        <v>629.5663402302862</v>
+        <v>629.56634023028619</v>
       </c>
       <c r="BE59">
         <v>1072.282312533388</v>
@@ -19600,13 +19868,13 @@
         <v>1007.184176353416</v>
       </c>
       <c r="BH59">
-        <v>1325.189418773711</v>
+        <v>1325.1894187737109</v>
       </c>
       <c r="BI59">
         <v>184.2282459293906</v>
       </c>
       <c r="BJ59">
-        <v>326.8182928224821</v>
+        <v>326.81829282248208</v>
       </c>
       <c r="BK59">
         <v>16</v>
@@ -19627,10 +19895,10 @@
         <v>0</v>
       </c>
       <c r="BQ59">
-        <v>37.3301151391121</v>
+        <v>37.330115139112102</v>
       </c>
       <c r="BR59">
-        <v>51.93392774663543</v>
+        <v>51.933927746635433</v>
       </c>
       <c r="BS59">
         <v>90.13347191803031</v>
@@ -19663,19 +19931,19 @@
         <v>50</v>
       </c>
       <c r="CC59">
-        <v>44.44444444</v>
+        <v>44.444444439999998</v>
       </c>
       <c r="CD59">
-        <v>85.71428571</v>
+        <v>85.714285709999999</v>
       </c>
       <c r="CE59">
         <v>40</v>
       </c>
       <c r="CF59">
-        <v>54.53905608104164</v>
+        <v>54.539056081041643</v>
       </c>
       <c r="CG59">
-        <v>45.27239639042698</v>
+        <v>45.272396390426977</v>
       </c>
       <c r="CH59">
         <v>3</v>
@@ -19699,13 +19967,13 @@
         <v>7</v>
       </c>
       <c r="CO59">
-        <v>19.10118870502202</v>
+        <v>19.101188705022022</v>
       </c>
       <c r="CP59">
-        <v>19.14761076665384</v>
+        <v>19.147610766653841</v>
       </c>
       <c r="CQ59">
-        <v>14.26980648588193</v>
+        <v>14.269806485881929</v>
       </c>
       <c r="CR59">
         <v>15.76086332392866</v>
@@ -19714,16 +19982,16 @@
         <v>12.32047080760101</v>
       </c>
       <c r="CT59">
-        <v>55.18442237627441</v>
+        <v>55.184422376274412</v>
       </c>
       <c r="CU59">
-        <v>5.016765670542958</v>
+        <v>5.0167656705429584</v>
       </c>
       <c r="CV59">
         <v>19</v>
       </c>
       <c r="CW59">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="CX59">
         <v>45</v>
@@ -19744,11 +20012,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P065</t>
-        </is>
+    <row r="60" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>165</v>
       </c>
       <c r="B60">
         <v>28</v>
@@ -19805,13 +20071,13 @@
         <v>60</v>
       </c>
       <c r="T60">
-        <v>33.33333333</v>
+        <v>33.333333330000002</v>
       </c>
       <c r="U60">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="V60">
-        <v>9.833333333000001</v>
+        <v>9.8333333330000006</v>
       </c>
       <c r="W60">
         <v>65</v>
@@ -19895,10 +20161,10 @@
         <v>6</v>
       </c>
       <c r="AX60">
-        <v>8.102437415648469</v>
+        <v>8.1024374156484686</v>
       </c>
       <c r="AY60">
-        <v>23.97728500901773</v>
+        <v>23.977285009017731</v>
       </c>
       <c r="AZ60">
         <v>8</v>
@@ -19982,22 +20248,22 @@
         <v>146.94</v>
       </c>
       <c r="CA60">
-        <v>58.64163596151563</v>
+        <v>58.641635961515632</v>
       </c>
       <c r="CB60">
-        <v>86.241880882434</v>
+        <v>86.241880882434003</v>
       </c>
       <c r="CC60">
-        <v>72.77310428451916</v>
+        <v>72.773104284519164</v>
       </c>
       <c r="CD60">
-        <v>88.15017406791075</v>
+        <v>88.150174067910754</v>
       </c>
       <c r="CE60">
-        <v>61.84253993840463</v>
+        <v>61.842539938404627</v>
       </c>
       <c r="CF60">
-        <v>35.97548411029325</v>
+        <v>35.975484110293252</v>
       </c>
       <c r="CG60">
         <v>36.50839310326414</v>
@@ -20018,10 +20284,10 @@
         <v>6</v>
       </c>
       <c r="CM60">
-        <v>4.132186165058429</v>
+        <v>4.1321861650584291</v>
       </c>
       <c r="CN60">
-        <v>4.718780658835088</v>
+        <v>4.7187806588350876</v>
       </c>
       <c r="CO60">
         <v>12.22205998043612</v>
@@ -20030,25 +20296,25 @@
         <v>12.24736826062961</v>
       </c>
       <c r="CQ60">
-        <v>9.16110086079512</v>
+        <v>9.1611008607951199</v>
       </c>
       <c r="CR60">
-        <v>10.69647022388567</v>
+        <v>10.696470223885671</v>
       </c>
       <c r="CS60">
-        <v>8.245520183906653</v>
+        <v>8.2455201839066525</v>
       </c>
       <c r="CT60">
-        <v>65.23616343415637</v>
+        <v>65.236163434156367</v>
       </c>
       <c r="CU60">
-        <v>5.930560312190151</v>
+        <v>5.9305603121901509</v>
       </c>
       <c r="CV60">
-        <v>9.943515221301247</v>
+        <v>9.9435152213012472</v>
       </c>
       <c r="CW60">
-        <v>3.314505073815536</v>
+        <v>3.3145050738155359</v>
       </c>
       <c r="CX60">
         <v>95</v>
@@ -20069,11 +20335,9 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P066</t>
-        </is>
+    <row r="61" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>166</v>
       </c>
       <c r="B61">
         <v>30</v>
@@ -20091,7 +20355,7 @@
         <v>57</v>
       </c>
       <c r="G61">
-        <v>28.66666667</v>
+        <v>28.666666670000001</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -20130,13 +20394,13 @@
         <v>60</v>
       </c>
       <c r="T61">
-        <v>35.66666667</v>
+        <v>35.666666669999998</v>
       </c>
       <c r="U61">
-        <v>4.166666667</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="V61">
-        <v>7.333333333</v>
+        <v>7.3333333329999997</v>
       </c>
       <c r="W61">
         <v>65</v>
@@ -20280,7 +20544,7 @@
         <v>14.09</v>
       </c>
       <c r="BR61">
-        <v>17.56</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="BS61">
         <v>27.97</v>
@@ -20313,10 +20577,10 @@
         <v>87.5</v>
       </c>
       <c r="CC61">
-        <v>66.66666667</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="CD61">
-        <v>89.28571429</v>
+        <v>89.285714290000001</v>
       </c>
       <c r="CE61">
         <v>70</v>
@@ -20367,7 +20631,7 @@
         <v>50</v>
       </c>
       <c r="CU61">
-        <v>4.545454545</v>
+        <v>4.5454545450000001</v>
       </c>
       <c r="CV61">
         <v>15</v>
@@ -20394,11 +20658,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P067</t>
-        </is>
+    <row r="62" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>167</v>
       </c>
       <c r="B62">
         <v>26</v>
@@ -20416,13 +20678,13 @@
         <v>55</v>
       </c>
       <c r="G62">
-        <v>21.33333333</v>
+        <v>21.333333329999999</v>
       </c>
       <c r="H62">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="I62">
-        <v>4.916666667</v>
+        <v>4.9166666670000003</v>
       </c>
       <c r="J62">
         <v>65</v>
@@ -20455,10 +20717,10 @@
         <v>50</v>
       </c>
       <c r="T62">
-        <v>21.33333333</v>
+        <v>21.333333329999999</v>
       </c>
       <c r="U62">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="V62">
         <v>5.5</v>
@@ -20587,7 +20849,7 @@
         <v>1</v>
       </c>
       <c r="BL62">
-        <v>266.34</v>
+        <v>266.33999999999997</v>
       </c>
       <c r="BM62">
         <v>0</v>
@@ -20629,7 +20891,7 @@
         <v>-1</v>
       </c>
       <c r="BZ62">
-        <v>266.34</v>
+        <v>266.33999999999997</v>
       </c>
       <c r="CA62">
         <v>37.5</v>
@@ -20638,10 +20900,10 @@
         <v>28.125</v>
       </c>
       <c r="CC62">
-        <v>41.66666667</v>
+        <v>41.666666669999998</v>
       </c>
       <c r="CD62">
-        <v>32.14285714</v>
+        <v>32.142857139999997</v>
       </c>
       <c r="CE62">
         <v>30</v>
@@ -20668,10 +20930,10 @@
         <v>6</v>
       </c>
       <c r="CM62">
-        <v>5.889488967195732</v>
+        <v>5.8894889671957316</v>
       </c>
       <c r="CN62">
-        <v>4.868670983389269</v>
+        <v>4.8686709833892694</v>
       </c>
       <c r="CO62">
         <v>16</v>
@@ -20692,13 +20954,13 @@
         <v>24</v>
       </c>
       <c r="CU62">
-        <v>2.181818182</v>
+        <v>2.1818181820000002</v>
       </c>
       <c r="CV62">
         <v>19</v>
       </c>
       <c r="CW62">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="CX62">
         <v>60</v>
@@ -20719,11 +20981,9 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P068</t>
-        </is>
+    <row r="63" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>168</v>
       </c>
       <c r="B63">
         <v>30</v>
@@ -20741,13 +21001,13 @@
         <v>60</v>
       </c>
       <c r="G63">
-        <v>24.66666667</v>
+        <v>24.666666670000001</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>4.166666667</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="J63">
         <v>65</v>
@@ -20780,7 +21040,7 @@
         <v>60</v>
       </c>
       <c r="T63">
-        <v>21.33333333</v>
+        <v>21.333333329999999</v>
       </c>
       <c r="U63">
         <v>2</v>
@@ -20963,7 +21223,7 @@
         <v>100</v>
       </c>
       <c r="CC63">
-        <v>72.22222222000001</v>
+        <v>72.222222220000006</v>
       </c>
       <c r="CD63">
         <v>100</v>
@@ -21017,7 +21277,7 @@
         <v>68</v>
       </c>
       <c r="CU63">
-        <v>6.181818182</v>
+        <v>6.1818181819999998</v>
       </c>
       <c r="CV63">
         <v>6</v>
@@ -21044,11 +21304,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P070</t>
-        </is>
+    <row r="64" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>169</v>
       </c>
       <c r="B64">
         <v>27</v>
@@ -21069,10 +21327,10 @@
         <v>27.4789236151626</v>
       </c>
       <c r="H64">
-        <v>3.605524988599179</v>
+        <v>3.6055249885991789</v>
       </c>
       <c r="I64">
-        <v>5.928583476829395</v>
+        <v>5.9285834768293952</v>
       </c>
       <c r="J64">
         <v>65</v>
@@ -21105,7 +21363,7 @@
         <v>59</v>
       </c>
       <c r="T64">
-        <v>34.66900267113217</v>
+        <v>34.669002671132169</v>
       </c>
       <c r="U64">
         <v>4.495005652037114</v>
@@ -21255,10 +21513,10 @@
         <v>15.83599181827018</v>
       </c>
       <c r="BR64">
-        <v>21.12938147920165</v>
+        <v>21.129381479201651</v>
       </c>
       <c r="BS64">
-        <v>37.88162489856976</v>
+        <v>37.881624898569761</v>
       </c>
       <c r="BT64">
         <v>11</v>
@@ -21282,25 +21540,25 @@
         <v>121.16</v>
       </c>
       <c r="CA64">
-        <v>65.63488913102523</v>
+        <v>65.634889131025233</v>
       </c>
       <c r="CB64">
-        <v>86.5566020462678</v>
+        <v>86.556602046267798</v>
       </c>
       <c r="CC64">
         <v>76.09168316416951</v>
       </c>
       <c r="CD64">
-        <v>89.22470418797195</v>
+        <v>89.224704187971952</v>
       </c>
       <c r="CE64">
-        <v>69.637887194321</v>
+        <v>69.637887194320996</v>
       </c>
       <c r="CF64">
-        <v>33.34224934545704</v>
+        <v>33.342249345457041</v>
       </c>
       <c r="CG64">
-        <v>34.76678879434196</v>
+        <v>34.766788794341963</v>
       </c>
       <c r="CH64">
         <v>6</v>
@@ -21318,10 +21576,10 @@
         <v>6</v>
       </c>
       <c r="CM64">
-        <v>3.435205249299485</v>
+        <v>3.4352052492994849</v>
       </c>
       <c r="CN64">
-        <v>4.093090027901749</v>
+        <v>4.0930900279017486</v>
       </c>
       <c r="CO64">
         <v>11.14232047181361</v>
@@ -21336,19 +21594,19 @@
         <v>10.30923009419527</v>
       </c>
       <c r="CS64">
-        <v>7.86270374421203</v>
+        <v>7.8627037442120304</v>
       </c>
       <c r="CT64">
-        <v>67.72675856403232</v>
+        <v>67.726758564032323</v>
       </c>
       <c r="CU64">
-        <v>6.156978051283891</v>
+        <v>6.1569780512838914</v>
       </c>
       <c r="CV64">
-        <v>8.36182510137205</v>
+        <v>8.3618251013720499</v>
       </c>
       <c r="CW64">
-        <v>2.787275033843977</v>
+        <v>2.7872750338439771</v>
       </c>
       <c r="CX64">
         <v>100</v>
@@ -21369,11 +21627,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P071</t>
-        </is>
+    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>170</v>
       </c>
       <c r="B65">
         <v>20</v>
@@ -21391,13 +21647,13 @@
         <v>40</v>
       </c>
       <c r="G65">
-        <v>26.33333333</v>
+        <v>26.333333329999999</v>
       </c>
       <c r="H65">
-        <v>5.083333333</v>
+        <v>5.0833333329999997</v>
       </c>
       <c r="I65">
-        <v>8.833333333000001</v>
+        <v>8.8333333330000006</v>
       </c>
       <c r="J65">
         <v>52</v>
@@ -21430,10 +21686,10 @@
         <v>56</v>
       </c>
       <c r="T65">
-        <v>51.66666667</v>
+        <v>51.666666669999998</v>
       </c>
       <c r="U65">
-        <v>7.666666667</v>
+        <v>7.6666666670000003</v>
       </c>
       <c r="V65">
         <v>13.16666667</v>
@@ -21613,7 +21869,7 @@
         <v>93.75</v>
       </c>
       <c r="CC65">
-        <v>86.11111111</v>
+        <v>86.111111109999996</v>
       </c>
       <c r="CD65">
         <v>100</v>
@@ -21667,7 +21923,7 @@
         <v>65</v>
       </c>
       <c r="CU65">
-        <v>5.909090909</v>
+        <v>5.9090909089999997</v>
       </c>
       <c r="CV65">
         <v>3</v>
@@ -21694,11 +21950,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P072</t>
-        </is>
+    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>171</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -21758,10 +22012,10 @@
         <v>15.66666667</v>
       </c>
       <c r="U66">
-        <v>1.833333333</v>
+        <v>1.8333333329999999</v>
       </c>
       <c r="V66">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="W66">
         <v>65</v>
@@ -21860,22 +22114,22 @@
         <v>0</v>
       </c>
       <c r="BC66">
-        <v>530.6644853883814</v>
+        <v>530.66448538838142</v>
       </c>
       <c r="BD66">
-        <v>553.7540464354964</v>
+        <v>553.75404643549643</v>
       </c>
       <c r="BE66">
-        <v>965.0578956322049</v>
+        <v>965.05789563220492</v>
       </c>
       <c r="BF66">
-        <v>1415.211618663273</v>
+        <v>1415.2116186632729</v>
       </c>
       <c r="BG66">
-        <v>928.708400001367</v>
+        <v>928.70840000136695</v>
       </c>
       <c r="BH66">
-        <v>1229.356408139984</v>
+        <v>1229.3564081399841</v>
       </c>
       <c r="BI66">
         <v>246.79</v>
@@ -21884,7 +22138,7 @@
         <v>300</v>
       </c>
       <c r="BK66">
-        <v>12.25686338176332</v>
+        <v>12.256863381763321</v>
       </c>
       <c r="BL66">
         <v>237.1639853695867</v>
@@ -21908,7 +22162,7 @@
         <v>87.22</v>
       </c>
       <c r="BS66">
-        <v>77.36659529335979</v>
+        <v>77.366595293359794</v>
       </c>
       <c r="BT66">
         <v>0</v>
@@ -21923,10 +22177,10 @@
         <v>-8.5</v>
       </c>
       <c r="BX66">
-        <v>12.25686338176332</v>
+        <v>12.256863381763321</v>
       </c>
       <c r="BY66">
-        <v>2.006046326281485</v>
+        <v>2.0060463262814849</v>
       </c>
       <c r="BZ66">
         <v>237.1639853695867</v>
@@ -21938,10 +22192,10 @@
         <v>25</v>
       </c>
       <c r="CC66">
-        <v>72.22222222000001</v>
+        <v>72.222222220000006</v>
       </c>
       <c r="CD66">
-        <v>35.71428571</v>
+        <v>35.714285709999999</v>
       </c>
       <c r="CE66">
         <v>20</v>
@@ -21998,7 +22252,7 @@
         <v>10</v>
       </c>
       <c r="CW66">
-        <v>3.333333333</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="CX66">
         <v>45</v>
@@ -22019,11 +22273,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P073</t>
-        </is>
+    <row r="67" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>172</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -22083,7 +22335,7 @@
         <v>38</v>
       </c>
       <c r="U67">
-        <v>4.666666667</v>
+        <v>4.6666666670000003</v>
       </c>
       <c r="V67">
         <v>10.16666667</v>
@@ -22263,10 +22515,10 @@
         <v>93.75</v>
       </c>
       <c r="CC67">
-        <v>77.77777777999999</v>
+        <v>77.777777779999994</v>
       </c>
       <c r="CD67">
-        <v>96.42857143000001</v>
+        <v>96.428571430000005</v>
       </c>
       <c r="CE67">
         <v>50</v>
@@ -22317,7 +22569,7 @@
         <v>76</v>
       </c>
       <c r="CU67">
-        <v>6.909090909</v>
+        <v>6.9090909089999997</v>
       </c>
       <c r="CV67">
         <v>6</v>
@@ -22344,11 +22596,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P074</t>
-        </is>
+    <row r="68" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>173</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -22408,10 +22658,10 @@
         <v>15.33333333</v>
       </c>
       <c r="U68">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="V68">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="W68">
         <v>65</v>
@@ -22588,7 +22838,7 @@
         <v>87.5</v>
       </c>
       <c r="CC68">
-        <v>38.88888889</v>
+        <v>38.888888889999997</v>
       </c>
       <c r="CD68">
         <v>100</v>
@@ -22642,13 +22892,13 @@
         <v>83</v>
       </c>
       <c r="CU68">
-        <v>7.545454545</v>
+        <v>7.5454545450000001</v>
       </c>
       <c r="CV68">
         <v>19</v>
       </c>
       <c r="CW68">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="CX68">
         <v>55</v>
@@ -22669,11 +22919,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P075</t>
-        </is>
+    <row r="69" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>174</v>
       </c>
       <c r="B69">
         <v>29</v>
@@ -22691,13 +22939,13 @@
         <v>59</v>
       </c>
       <c r="G69">
-        <v>38.66666667</v>
+        <v>38.666666669999998</v>
       </c>
       <c r="H69">
-        <v>4.666666667</v>
+        <v>4.6666666670000003</v>
       </c>
       <c r="I69">
-        <v>6.833333333</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="J69">
         <v>65</v>
@@ -22913,7 +23161,7 @@
         <v>90.625</v>
       </c>
       <c r="CC69">
-        <v>97.22222222000001</v>
+        <v>97.222222220000006</v>
       </c>
       <c r="CD69">
         <v>100</v>
@@ -22967,7 +23215,7 @@
         <v>59</v>
       </c>
       <c r="CU69">
-        <v>5.363636364</v>
+        <v>5.3636363640000004</v>
       </c>
       <c r="CV69">
         <v>3</v>
@@ -22994,11 +23242,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P076</t>
-        </is>
+    <row r="70" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>175</v>
       </c>
       <c r="B70">
         <v>30</v>
@@ -23022,7 +23268,7 @@
         <v>2.5</v>
       </c>
       <c r="I70">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="J70">
         <v>51</v>
@@ -23055,13 +23301,13 @@
         <v>60</v>
       </c>
       <c r="T70">
-        <v>22.66666667</v>
+        <v>22.666666670000001</v>
       </c>
       <c r="U70">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="V70">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="W70">
         <v>65</v>
@@ -23208,7 +23454,7 @@
         <v>28.5</v>
       </c>
       <c r="BS70">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="BT70">
         <v>3</v>
@@ -23292,7 +23538,7 @@
         <v>58</v>
       </c>
       <c r="CU70">
-        <v>5.272727273</v>
+        <v>5.2727272730000001</v>
       </c>
       <c r="CV70">
         <v>3</v>
@@ -23319,11 +23565,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P077</t>
-        </is>
+    <row r="71" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>176</v>
       </c>
       <c r="B71">
         <v>23</v>
@@ -23347,7 +23591,7 @@
         <v>2.5</v>
       </c>
       <c r="I71">
-        <v>4.166666667</v>
+        <v>4.1666666670000003</v>
       </c>
       <c r="J71">
         <v>65</v>
@@ -23380,13 +23624,13 @@
         <v>53</v>
       </c>
       <c r="T71">
-        <v>19.33333333</v>
+        <v>19.333333329999999</v>
       </c>
       <c r="U71">
-        <v>2.666666667</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="V71">
-        <v>4.833333333</v>
+        <v>4.8333333329999997</v>
       </c>
       <c r="W71">
         <v>65</v>
@@ -23563,10 +23807,10 @@
         <v>96.875</v>
       </c>
       <c r="CC71">
-        <v>55.55555556</v>
+        <v>55.555555560000002</v>
       </c>
       <c r="CD71">
-        <v>89.28571429</v>
+        <v>89.285714290000001</v>
       </c>
       <c r="CE71">
         <v>80</v>
@@ -23617,7 +23861,7 @@
         <v>78</v>
       </c>
       <c r="CU71">
-        <v>7.090909091</v>
+        <v>7.0909090910000003</v>
       </c>
       <c r="CV71">
         <v>6</v>
@@ -23644,11 +23888,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P078</t>
-        </is>
+    <row r="72" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>177</v>
       </c>
       <c r="B72">
         <v>27.03999141015349</v>
@@ -23669,10 +23911,10 @@
         <v>33</v>
       </c>
       <c r="H72">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="I72">
-        <v>5.833333333</v>
+        <v>5.8333333329999997</v>
       </c>
       <c r="J72">
         <v>63</v>
@@ -23702,13 +23944,13 @@
         <v>6</v>
       </c>
       <c r="S72">
-        <v>54.63736713717517</v>
+        <v>54.637367137175168</v>
       </c>
       <c r="T72">
         <v>34</v>
       </c>
       <c r="U72">
-        <v>4.333333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="V72">
         <v>6</v>
@@ -23810,34 +24052,34 @@
         <v>2</v>
       </c>
       <c r="BC72">
-        <v>653.3419329472385</v>
+        <v>653.34193294723855</v>
       </c>
       <c r="BD72">
-        <v>626.6340012929983</v>
+        <v>626.63400129299828</v>
       </c>
       <c r="BE72">
-        <v>1090.051800183122</v>
+        <v>1090.0518001831219</v>
       </c>
       <c r="BF72">
         <v>1712.230478945969</v>
       </c>
       <c r="BG72">
-        <v>919.8122100230801</v>
+        <v>919.81221002308007</v>
       </c>
       <c r="BH72">
-        <v>1556.914491466035</v>
+        <v>1556.9144914660351</v>
       </c>
       <c r="BI72">
-        <v>255.3374525430634</v>
+        <v>255.33745254306339</v>
       </c>
       <c r="BJ72">
-        <v>456.4313261791525</v>
+        <v>456.43132617915251</v>
       </c>
       <c r="BK72">
-        <v>15.40865059740658</v>
+        <v>15.408650597406581</v>
       </c>
       <c r="BL72">
-        <v>298.4311043968603</v>
+        <v>298.43110439686029</v>
       </c>
       <c r="BM72">
         <v>3</v>
@@ -23852,10 +24094,10 @@
         <v>2</v>
       </c>
       <c r="BQ72">
-        <v>42.29445006974846</v>
+        <v>42.294450069748457</v>
       </c>
       <c r="BR72">
-        <v>64.24448077922565</v>
+        <v>64.244480779225654</v>
       </c>
       <c r="BS72">
         <v>107.9686853669813</v>
@@ -23873,13 +24115,13 @@
         <v>14.5</v>
       </c>
       <c r="BX72">
-        <v>15.40865059740658</v>
+        <v>15.408650597406581</v>
       </c>
       <c r="BY72">
         <v>2.551206013998192</v>
       </c>
       <c r="BZ72">
-        <v>298.4311043968603</v>
+        <v>298.43110439686029</v>
       </c>
       <c r="CA72">
         <v>75</v>
@@ -23888,10 +24130,10 @@
         <v>53.125</v>
       </c>
       <c r="CC72">
-        <v>86.11111111</v>
+        <v>86.111111109999996</v>
       </c>
       <c r="CD72">
-        <v>67.85714286</v>
+        <v>67.857142859999996</v>
       </c>
       <c r="CE72">
         <v>70</v>
@@ -23969,11 +24211,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P080</t>
-        </is>
+    <row r="73" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>178</v>
       </c>
       <c r="B73">
         <v>29</v>
@@ -23994,10 +24234,10 @@
         <v>48</v>
       </c>
       <c r="H73">
-        <v>7.333333333</v>
+        <v>7.3333333329999997</v>
       </c>
       <c r="I73">
-        <v>8.666666666999999</v>
+        <v>8.6666666669999994</v>
       </c>
       <c r="J73">
         <v>65</v>
@@ -24033,7 +24273,7 @@
         <v>48</v>
       </c>
       <c r="U73">
-        <v>8.166666666999999</v>
+        <v>8.1666666669999994</v>
       </c>
       <c r="V73">
         <v>10.5</v>
@@ -24183,7 +24423,7 @@
         <v>10.85</v>
       </c>
       <c r="BS73">
-        <v>16.31</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="BT73">
         <v>12</v>
@@ -24213,10 +24453,10 @@
         <v>96.875</v>
       </c>
       <c r="CC73">
-        <v>88.88888889</v>
+        <v>88.888888890000004</v>
       </c>
       <c r="CD73">
-        <v>85.71428571</v>
+        <v>85.714285709999999</v>
       </c>
       <c r="CE73">
         <v>75</v>
@@ -24267,13 +24507,13 @@
         <v>57</v>
       </c>
       <c r="CU73">
-        <v>5.181818182</v>
+        <v>5.1818181819999998</v>
       </c>
       <c r="CV73">
         <v>20</v>
       </c>
       <c r="CW73">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="CX73">
         <v>100</v>
@@ -24294,11 +24534,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P081</t>
-        </is>
+    <row r="74" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>179</v>
       </c>
       <c r="B74">
         <v>29</v>
@@ -24316,10 +24554,10 @@
         <v>58</v>
       </c>
       <c r="G74">
-        <v>17.33333333</v>
+        <v>17.333333329999999</v>
       </c>
       <c r="H74">
-        <v>2.166666667</v>
+        <v>2.1666666669999999</v>
       </c>
       <c r="I74">
         <v>6</v>
@@ -24355,13 +24593,13 @@
         <v>60</v>
       </c>
       <c r="T74">
-        <v>32.33333333</v>
+        <v>32.333333330000002</v>
       </c>
       <c r="U74">
         <v>4.5</v>
       </c>
       <c r="V74">
-        <v>7.666666667</v>
+        <v>7.6666666670000003</v>
       </c>
       <c r="W74">
         <v>65</v>
@@ -24538,7 +24776,7 @@
         <v>81.25</v>
       </c>
       <c r="CC74">
-        <v>94.44444444</v>
+        <v>94.444444439999998</v>
       </c>
       <c r="CD74">
         <v>75</v>
@@ -24592,7 +24830,7 @@
         <v>70</v>
       </c>
       <c r="CU74">
-        <v>6.363636364</v>
+        <v>6.3636363640000004</v>
       </c>
       <c r="CV74">
         <v>3</v>
@@ -24619,11 +24857,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P082</t>
-        </is>
+    <row r="75" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>180</v>
       </c>
       <c r="B75">
         <v>28</v>
@@ -24644,7 +24880,7 @@
         <v>65</v>
       </c>
       <c r="H75">
-        <v>6.666666667</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="I75">
         <v>10.16666667</v>
@@ -24680,10 +24916,10 @@
         <v>57</v>
       </c>
       <c r="T75">
-        <v>57.33333333</v>
+        <v>57.333333330000002</v>
       </c>
       <c r="U75">
-        <v>6.583333333</v>
+        <v>6.5833333329999997</v>
       </c>
       <c r="V75">
         <v>11</v>
@@ -24863,7 +25099,7 @@
         <v>100</v>
       </c>
       <c r="CC75">
-        <v>86.11111111</v>
+        <v>86.111111109999996</v>
       </c>
       <c r="CD75">
         <v>100</v>
@@ -24917,7 +25153,7 @@
         <v>69</v>
       </c>
       <c r="CU75">
-        <v>6.272727273</v>
+        <v>6.2727272730000001</v>
       </c>
       <c r="CV75">
         <v>3</v>
